--- a/excels/comment_list.xlsx
+++ b/excels/comment_list.xlsx
@@ -69,18 +69,18 @@
     <t>9</t>
   </si>
   <si>
-    <t>❤️❤️❤️</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>یعنی با وجود پیج من 😍😍😍😍😍😍
 .
 هنووووووزم صورتت چروک داره؟ 😱😱😱😱😱😱</t>
   </si>
   <si>
     <t>weird_.woman</t>
+  </si>
+  <si>
+    <t>❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>#امیدوارم_هر_برگی_که_از_درخت_می_افتد_آمینی_باشد_بر_استجابت_آرزوهایتان</t>
@@ -164,16 +164,16 @@
     <t>0</t>
   </si>
   <si>
+    <t>ماری جون بیا از گوشواره های خوشگل من خرید کن😍</t>
+  </si>
+  <si>
+    <t>gaallery.aram</t>
+  </si>
+  <si>
     <t>مثل همیشه خوشگل وجذاب 😍😍👏👏</t>
   </si>
   <si>
     <t>masoumeh4840</t>
-  </si>
-  <si>
-    <t>ماری جون بیا از گوشواره های خوشگل من خرید کن😍</t>
-  </si>
-  <si>
-    <t>gaallery.aram</t>
   </si>
 </sst>
 </file>
@@ -603,10 +603,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -617,10 +617,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -760,7 +760,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -788,7 +788,7 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -802,7 +802,7 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/excels/comment_list.xlsx
+++ b/excels/comment_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="758">
   <si>
     <t>نام اکانت</t>
   </si>
@@ -31,13 +31,1658 @@
     <t>marii.family</t>
   </si>
   <si>
+    <t>من دوست دارم مهمونی برم 😂</t>
+  </si>
+  <si>
+    <t>phibrows_atefe.ameri</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>قشنگ جان😍❤️😍❤️😍❤️</t>
+  </si>
+  <si>
+    <t>yeganeh_dailylife</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>واقعا سفره زیباست</t>
+  </si>
+  <si>
+    <t>manli709</t>
+  </si>
+  <si>
+    <t>عزیزم😍</t>
+  </si>
+  <si>
+    <t>lifestyle.ysn</t>
+  </si>
+  <si>
+    <t>من مهمون که دارم خوشحالترم</t>
+  </si>
+  <si>
+    <t>mitraghahramani95</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>#پیج_برتر</t>
+  </si>
+  <si>
+    <t>sahari4734</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>#سید</t>
+  </si>
+  <si>
+    <t>sourazar_zahra</t>
+  </si>
+  <si>
+    <t>#ظروفپذیرایی</t>
+  </si>
+  <si>
+    <t>سخت افســـــــوس می خـــــــورم
+برای تمام روزهایی کــــــــــه..
+بی تـــــــــــو..
+گذشتــــــــــند..
+و تمام شــــــــب هایی که
+که با تو نمی گذرنــــــد..
+می بینی ..
+هنوز رویایـــــــــت..
+تمام زندگی من است ..</t>
+  </si>
+  <si>
+    <t>farzane.ke626086</t>
+  </si>
+  <si>
+    <t>#مهمونی</t>
+  </si>
+  <si>
+    <t>#مری_قشنگم😍 ❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>miss_soomayeh</t>
+  </si>
+  <si>
+    <t>#چیدمان</t>
+  </si>
+  <si>
+    <t>#زیبا</t>
+  </si>
+  <si>
+    <t>#عالی</t>
+  </si>
+  <si>
+    <t>چه زیبا وقشنگ عزیزم🌹🌹🌹🌹پس ماهم دعوت کن بیایم خونتون مهمونی</t>
+  </si>
+  <si>
+    <t>mno.6848</t>
+  </si>
+  <si>
+    <t>#کد_بانووووووو😊🙈</t>
+  </si>
+  <si>
+    <t>niloofarabi.209</t>
+  </si>
+  <si>
+    <t>👏👏😋😋😋😋😍😍😍خیلی هم عالی خسته نباشید عزیزم ❤❤❤</t>
+  </si>
+  <si>
+    <t>khadijeh_kordi.1365</t>
+  </si>
+  <si>
+    <t>تعدادی تایپیست جهت تایپ با گوشی نیازمندیم ⭕⭕🔴🔴🆘🆘🆘⭕⭕</t>
+  </si>
+  <si>
+    <t>kar.online_ir</t>
+  </si>
+  <si>
+    <t>اگه همسرت پیشت نیست استوریمو حتما ببین 😍❤</t>
+  </si>
+  <si>
+    <t>clup_zibayii</t>
+  </si>
+  <si>
+    <t>خیلی میزتون شیک وباکلاسه عزیزم درست مثل خودتون🤗🤗🤗😍😍😍👌👌👌</t>
+  </si>
+  <si>
+    <t>golnosh49</t>
+  </si>
+  <si>
+    <t>همه چی بهت میاد مری جانم😍😍😚😚😚</t>
+  </si>
+  <si>
+    <t>shery_funny_lifestyle</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Mehrabooooon tarin😍❤️</t>
+  </si>
+  <si>
+    <t>marmar.soltani_</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>قربونت دکتر مری❤️❤️❤️❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>shermin.shayesteh1367</t>
+  </si>
+  <si>
+    <t>همون خونه داری بیشتر بهت میاد</t>
+  </si>
+  <si>
+    <t>zahraa.amiiriii</t>
+  </si>
+  <si>
+    <t>|￣￣￣￣￣￣￣￣￣￣￣|
+🔴بوتاکس گیاهی بدون تزریق🔴
+|＿＿＿＿＿＿＿＿＿＿＿|
+               \ ( ° ° ) /
+                  \    /
+                 ا---ا
+                _|   |_😍😍😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>exir_javani13</t>
+  </si>
+  <si>
+    <t>دکتر بودن چه بهت میاد😍😍😍❤️❤️</t>
+  </si>
+  <si>
+    <t>adahoo.ir</t>
+  </si>
+  <si>
+    <t>تاحالا شده بخوای بری جایی ندونی چی باید بپوشی؟یا ندونی لباسات به هم دیگه میان یا نه؟🤔ما میخوایم تو پیجمون کمکتون کنیم با هر اندامی که دارین بهترین استایل رو برای خودتون بسازین😍🌹😘❤️❤️</t>
+  </si>
+  <si>
+    <t>مدیر بودن😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>_saharazimii</t>
+  </si>
+  <si>
+    <t>سلام کسی نیس آشنا بشیم تنهام😍❤️😢</t>
+  </si>
+  <si>
+    <t>vida_jooni4</t>
+  </si>
+  <si>
+    <t>🥰صورت لاغر و پژمره رو بنداز دور
+یه روش دائمی واسه جیگر شدن صورتت 🥰
+⛔پریود دردناک رو فراموش کنین
+قاعدگی رو آسون بگذرونین⛔
+اینجا همه چی گیاهی و ارگانیکه
+بیا ببین چه خبره☘️💞☘️</t>
+  </si>
+  <si>
+    <t>nanosun_productt</t>
+  </si>
+  <si>
+    <t>miss_saaraakind</t>
+  </si>
+  <si>
+    <t>چقدر بهت میاد لباس دکتری پس بی علت نبوده مادر گلت دوست داشته دکتر بشی چون میدونسته این لباس برازنده مری جونه</t>
+  </si>
+  <si>
+    <t>nazgol00067</t>
+  </si>
+  <si>
+    <t>خیلی مری جونم😍</t>
+  </si>
+  <si>
+    <t>akramsadeghii1364</t>
+  </si>
+  <si>
+    <t>دکتر بودن بیشتر بهت میاد مری جونم😘😘</t>
+  </si>
+  <si>
+    <t>fatemeh._iimani</t>
+  </si>
+  <si>
+    <t>یاد بچگیام افتادم،دکتر بازی میکردیم،یادش ب خیر،اره خیلی بهت میاد دکتر جون دکتر😍</t>
+  </si>
+  <si>
+    <t>pomona.fruit</t>
+  </si>
+  <si>
+    <t>دکتر بودن بیشتر میاد موفق باشی گل😍</t>
+  </si>
+  <si>
+    <t>bahar.k_58</t>
+  </si>
+  <si>
+    <t>هردو گزینه باااانو هم دکتر هم مدیر هردوتاش بهتون میااااد😍😍😍😍❤️❤️</t>
+  </si>
+  <si>
+    <t>dresing_tranoom</t>
+  </si>
+  <si>
+    <t>دکتر ❤️😍😂</t>
+  </si>
+  <si>
+    <t>bahare_vahdat</t>
+  </si>
+  <si>
+    <t>موفق باشی مری جون😍</t>
+  </si>
+  <si>
+    <t>miss.safari147</t>
+  </si>
+  <si>
+    <t>دکتر بودن بیشتر میاد بهتون😂</t>
+  </si>
+  <si>
+    <t>❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>1678amirabas</t>
+  </si>
+  <si>
+    <t>زیباترینااااااا ❤️ ❤️ ❤️ ❤️</t>
+  </si>
+  <si>
+    <t>matine.rezaei</t>
+  </si>
+  <si>
+    <t>دلیل اصلی ایجاد لک در صورت، تولید زیاد چربی در پوست است. پس از ترکیدن آکنه و از بین رفتن جوش‌، جای آن‌‌ها به‌صورت لک روی صورت باقی ‌‌می‌ماندرفع تیرگی نواحی مختلف پوست 😍🔥 با محصول تخصصی 🔥😍</t>
+  </si>
+  <si>
+    <t>bano__store</t>
+  </si>
+  <si>
+    <t>این متن با عشق 😍❤تقدیم به تمام کسانی که میخوننش🙏
+الهی اونقدر بخندید که صدای خنده هاتون
+بشه زیباترین موسیقی کائنات
+الهی از شادی اونقدر پر بشید که
+سرریزش همه ی مردم دنیا رو سیراب کنه.
+الهی روزیتون اونقدر زیاد بشه که
+امیدی باشید برای رسوندن روزی خیلیا
+الهی همیشه بهترین افکار به سراغتون بیان
+و درست ترین تصمیمات رو بگیرید
+الهی اونقدر غرق خوشبختی بشید که
+تا عمق بی انتهای رضایت برسید
+الهی همیشه تنتون سالم باشه
+و عاقبت به خیر بشید
+الهی که همیشه بهترین حال ممکن رو داشته باشید
+و الهی که خدا همیشه هواتونو داشته باشه
+😇❤💚💜💛💙💜💗💙💜💚</t>
+  </si>
+  <si>
+    <t>selda.homedecor</t>
+  </si>
+  <si>
+    <t>پیش اون خانمه که سبز پوشیده وایستادین</t>
+  </si>
+  <si>
+    <t>وجدانن تا حالا کیک سه سوته پختی یا خامه کشی آسون و راحت داشتی؟؟ والا منم نداشتم و ندیدم
+هرکی هم میگه بلده ،دروغ میگه بابا
+باور نکن ولی مبتونم راه های اصولیش رو بهت یاد بدم ،بیا تو پیجم تا باهم آشپزی رو قدم به قدم یاد بگیریم</t>
+  </si>
+  <si>
+    <t>masi.diiary</t>
+  </si>
+  <si>
+    <t>خوشبختی و آرامش چیزی نیست که بخواهی آن را به تملک خود در آوری
+خوشبختی و آرامش کیفیت تفکر است؛
+حالت روحی است
+خوشبختی و آرامش
+وابسته به جهان درون توست
+******
+😍</t>
+  </si>
+  <si>
+    <t>soheyla556955</t>
+  </si>
+  <si>
+    <t>مثل همیشه عالیه،عالیه،عالیه،عالیه عالی😍😍😍😍❤️❤️❤️❤️👏👏👏</t>
+  </si>
+  <si>
+    <t>abtin.mm3</t>
+  </si>
+  <si>
+    <t>⚘🌷🌸💐⚘🌷🌸💐⚘🌷🌸💐⚘🌷🌸💐🌼🌷⚘🌷🌷💐🌸🌷⚘💐⚘💐🌸🌷⚘🌸💐🌷🌸🌸🌷🌷🌸🌷🌷🌸🌸🌸🌸🌸🌷🌷🌸💐🌸🌸🌸🌸🌸🌷🌸🌷🌸🌷🌷🌷🌸🌸🌸🌸🌸🌸🌸🌸تقدیم با عشق😍</t>
+  </si>
+  <si>
+    <t>کنار اون خانم که لباس سبز پوشیده ایستادی مری جون ❤️❤️</t>
+  </si>
+  <si>
+    <t>saba62632</t>
+  </si>
+  <si>
+    <t>لباستون قرمزه شال قرمز پوشید پشت لباس سبزه وایساده اید</t>
+  </si>
+  <si>
+    <t>ati.jamshidi98</t>
+  </si>
+  <si>
+    <t>💒🧿🧿🧿از چشم بد بدور آن شا الله گلم😍❤️</t>
+  </si>
+  <si>
+    <t>عشق منی😍😍😍😍</t>
+  </si>
+  <si>
+    <t>لحظات شادی، خدا را ستایش کن
+لحظات سختی، خدا را جستجو کن
+لحظات آرامش، خدا را مناجات کن
+لحظات درد آور، به خدا اعتماد کن
+و در تمام لحظات، شکر گزار خداوند باش …
+******</t>
+  </si>
+  <si>
+    <t>عزیزم یلدات مبارک😂🤩</t>
+  </si>
+  <si>
+    <t>sweet.home2510</t>
+  </si>
+  <si>
+    <t>دوست خوشگلم 😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>هرگاه زندگی با شور و عشق را برمی گزینید
+زندگی نیز شور و عشق خود را برای شما بر خواهد گزید
+“باربارا دی آنجلیس”
+بیاییم هر روز وظیفمون بدونیم که حداقل دل یک نفرو شاد کنیم :)
+******</t>
+  </si>
+  <si>
+    <t>پشت سر خانومی که داره دف میزنه😍😍😍</t>
+  </si>
+  <si>
+    <t>s.f_3208</t>
+  </si>
+  <si>
+    <t>مری جون اناردستت بودیه لحظه اومدی جلوی دوربین</t>
+  </si>
+  <si>
+    <t>sara__.srr</t>
+  </si>
+  <si>
+    <t>خیلی هم عالی 😍😍😍😍</t>
+  </si>
+  <si>
+    <t>lidoma_wear</t>
+  </si>
+  <si>
+    <t>حرکت خیلی خوب و انسانی ولی به نظر من خیلی قشنگ تر میشد اگه تصویر کمک گیرنده رو نشون نمیدادید</t>
+  </si>
+  <si>
+    <t>javahrim</t>
+  </si>
+  <si>
+    <t>چقدررر ریا...میتونستی این کار رو پنهونی هم انجام بدی یا حداقل چهره شون رو نشون نمیدادی ک کرامت انسانیه اون بنده های خدا هم حفظ بشه...نه اینکه....😐😐😐😉</t>
+  </si>
+  <si>
+    <t>afrouz_1988</t>
+  </si>
+  <si>
+    <t>کارتون بسیار بسیار عالی بود ولی ایکاش به معرض نمایش نمیزاشتید شما این کار رو برای دل خودتون انجام میدید نه برای دیده شدن پس کاری که دلی باشه نیاز به گفتن نداره البته نظر منه</t>
+  </si>
+  <si>
+    <t>azita_azizzadeh</t>
+  </si>
+  <si>
+    <t>قبول باشه</t>
+  </si>
+  <si>
+    <t>fereshteh.b700</t>
+  </si>
+  <si>
+    <t>چندسال بود ایران زندگی نمی‌کرد
+وقتی پیجمونو دید گفت محصولاتتون خیلی خوبن 😍😋اما من دلم نمیاد بخرم😥
+پرسیدم چرا؟😃
+گفت این همه آدم نیازمند هست، من بیام لواشک بخورم؟😞خب پولش رو می‌دم به اونا❤️
+قلبش مثل آینه صاف بود…
+گفتم عزیزدل، وقتی خرید می‌کنی🛍
+حتی اگر دلت بخواد فقط خوش بگذرونی،🤪
+در واقع داری یک چرخی رو می‌چرخونی…🥰
+داری‌ کمک می‌کنی سی‌تا خانم به تلاششون افتخار کنن.☺️
+سی‌تا خانم معتبر بشن.✅
+سی‌تا خانم خودشونو که تو آینه دیدن، به خودشون آفرین بگن…^^
+بیا کار بسازیم، بیا خانم‌های بیشتری رو مشغول به‌کار کنیم…❤️‍🔥</t>
+  </si>
+  <si>
+    <t>tanagholat_hanami</t>
+  </si>
+  <si>
+    <t>خیرببینی مهربون</t>
+  </si>
+  <si>
+    <t>sny3363</t>
+  </si>
+  <si>
+    <t>👏👏👏👏👏👏👏👏👏👏</t>
+  </si>
+  <si>
+    <t>راستشو بگم نیاز به کمک هموطنای عزیزم دارم تا دیده بشه کارم بیزحمت این کامنت رو لایک کنید کامنتم بیاد بالا هموطنای دیگه هم ازم حمایت کنن یه دنیا ممنون از دل مهربونتون💕🌷</t>
+  </si>
+  <si>
+    <t>beautyland_online_</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>اون آخرین نفر که بسته رو گرفت خیلی مظلومانه بود احساساتی شدم براش😔😔😔 مرسی مری خانم ❤❤</t>
+  </si>
+  <si>
+    <t>asmazahranamvar</t>
+  </si>
+  <si>
+    <t>قبول باشه عزیزم</t>
+  </si>
+  <si>
+    <t>amin123456njhbvg20219</t>
+  </si>
+  <si>
+    <t>عزیییزدلم 😥😔 چقد کارتون قشنگ بود واقعا... و چه جاهایی رفته بودین 😔. خدا صدبرابر عوص کارتون رو بده عزیزم.. چقد تیکه اخرش قشنگ بود 😭💔</t>
+  </si>
+  <si>
+    <t>jalali._.pasargad</t>
+  </si>
+  <si>
+    <t>بسه دیگه.......
+هر چقدر پوست پر از جوش و لک و منافذ رو تحمل کردی......
+توهم میتونی یه پوست سالم داشته باشی
+اگه خسته شدی بیا تو پیجمون تا با روش‌های گیاهی برطرف بشه.❌❌❌❌❌❌❌❌❌🤯🤯🤯🤯🤯🤯🤯❌❌❌❌🤯🤯🤯</t>
+  </si>
+  <si>
+    <t>heallthy_body_</t>
+  </si>
+  <si>
+    <t>اشکم در اومد خدا نذرتون رو قبول کنه انشاالله همه بتونن ب همدیگه کمک کنه تا این فقرو بدبختی تموم بشه</t>
+  </si>
+  <si>
+    <t>afsane_hely</t>
+  </si>
+  <si>
+    <t>الهی خدا به اندازه دلت بهت بده</t>
+  </si>
+  <si>
+    <t>انگشتر طلا روس قیمت فقط ۳۹😍😍م</t>
+  </si>
+  <si>
+    <t>gaallery.aram</t>
+  </si>
+  <si>
+    <t>عزیزم اشکم در اومد از دیدن این ویدئو، خدا خیرت بده❤️</t>
+  </si>
+  <si>
+    <t>latifa___a</t>
+  </si>
+  <si>
+    <t>انشاالله هرچی از خدا میخواین بهتون بده با این کار زیباتون😍😢</t>
+  </si>
+  <si>
+    <t>maedh_pi</t>
+  </si>
+  <si>
+    <t>تـو دلیل لبخندهای مـن هستی
+اگر مـن هم دلیل لبخندهای تـو هستم
+پس هرگز از خندیدن دست بر ندار</t>
+  </si>
+  <si>
+    <t>خدا خیرتون بده الهی از خدا هرچی میخواین بهتون بده بهترین ها نصیب دل مهربونتون</t>
+  </si>
+  <si>
+    <t>saraabasi1990</t>
+  </si>
+  <si>
+    <t>#الهی_آرامشو_خوشبختی💎سهم_لحظه_هاتون_باشه🌹🌻🌹🌻🌹🌻🌹🌻🌹🌻🌹🌻🌹🌻🌹🌻🌹🌻🌹🌻🌹🌻🌹🌻🌹🌻</t>
+  </si>
+  <si>
+    <t>dokhi_bala_0082</t>
+  </si>
+  <si>
+    <t>میخوای برای ولنتاین و روز مادر هدیه بگیری ولی نمیدونی چی بخری ؟؟؟بیا توی پیج من خیلی راحت ی هدیه شیک و جذاب انتخاب کن 😍😍😍 پیجم و به دوستات معرفی کن که از همین الان به فکر باشن 🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>candle.yas</t>
+  </si>
+  <si>
+    <t>🔥🔥🔥🔥🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>پینم کن❤️❤️❤️یا جایزه بده😍</t>
+  </si>
+  <si>
+    <t>roya85rj</t>
+  </si>
+  <si>
+    <t>#در کنار خانواده لحضه لحضه هاتون شیرین❤️</t>
+  </si>
+  <si>
+    <t>elmira_tulani</t>
+  </si>
+  <si>
+    <t>#امیدوارم_هر_برگی_که_از_درخت_می_افتد_آمینی_باشد_بر_استجابت_آرزوهایتان💗💟🌸💮🌼🌹💗💟🌸💮🌼🌹💗💟🌸💮🌼🌹💗💟🌸💮🌼🌹💗💟🌸💮🌼🌹</t>
+  </si>
+  <si>
+    <t>تولدش مبارک انشاالله آرزوهاش خاطره شن براش عزیزم ❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>sepideh_zahmatkesh91</t>
+  </si>
+  <si>
+    <t>.
+- چیزی به عید نمونده ،پوستم انقدددد شل و چروک و شده😢😞
++خب تا قبل از عید کاملا سفت و صاف و جوونش کن🙄
+-چجوری؟؟؟☹🤨
++بیاااا تو پیجممممم تا بفهمی😎😉🤗🤗😮😮</t>
+  </si>
+  <si>
+    <t>beauti._skin</t>
+  </si>
+  <si>
+    <t>راستش آقایون شیک پوش تر از خانمها بودن
+مخصوصا خودت مری خانم لباس ات خیلی یطوری بود</t>
+  </si>
+  <si>
+    <t>hniyehhh</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>خیلی خوبه که خواهر داشته باشی اونم از نوع خوبش خدا نگه تون داره واسه همدیگه 👏👏😍😍😍</t>
+  </si>
+  <si>
+    <t>fa_riba7735</t>
+  </si>
+  <si>
+    <t>مهربونم</t>
+  </si>
+  <si>
+    <t>mahsaa.62123</t>
+  </si>
+  <si>
+    <t>سلام دیگه نیاز نیس بیرون کارکنی خدماتشو از ما بگیر تو خونه بشین پول دربیار 😍✌️</t>
+  </si>
+  <si>
+    <t>parto.kar75</t>
+  </si>
+  <si>
+    <t>🌺🌻🌹🌹🌻🌻🌺🌻🌹
+ادمین جان با اجازه شما🌺
+دوستای گلم اگر هفت سین عید خواستید با قیمت مناسب باما همراه باشید 😍😍😍😍😍😍😍
+هم رنگ طلایی هم رنگ نقره ای ☺
+🍁🌺🌻🌼🌹</t>
+  </si>
+  <si>
+    <t>ماشالله مری خانم....خدا حفظتون کنه😍</t>
+  </si>
+  <si>
+    <t>شماکه هم خواهر ومهمتر جاری هستید چرا فقط پدرمادرخودتونو دعوت کردید پدر شوهر مادر شوهرتون اصلا تو جمعاتون نیستن ...احترام باید به هردوطایفه باشه وقتی اینقدر توهم هستید جاری وخاهر</t>
+  </si>
+  <si>
+    <t>maryamzzz3452</t>
+  </si>
+  <si>
+    <t>تولدشون مبارککککک</t>
+  </si>
+  <si>
+    <t>خانواده یعنی عشق خوش باشید همیشه کنار همدیگه 😍😍❤💖</t>
+  </si>
+  <si>
+    <t>zeinabmirbaghery</t>
+  </si>
+  <si>
+    <t>تولدشون مبارک مری جون❤️❤️❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>monarezaeii65</t>
+  </si>
+  <si>
+    <t>مبارک باشه تولدگل خواهرتون😍</t>
+  </si>
+  <si>
+    <t>pw.ry292</t>
+  </si>
+  <si>
+    <t>از پيج ما هم ديدن فرماييد🙌</t>
+  </si>
+  <si>
+    <t>rejal_scarf</t>
+  </si>
+  <si>
+    <t>من برای جاریم هرسال کیک میگیرم سورپرایزش میکنم خوبه حالا شما و جاریتون خواهر هستین ولی منو جاریم اصلا خواهر هم خون نیستیم ولی از وقتی همو پیدا کردیم مثل خواهرشدیم برای هم ❤️❤️</t>
+  </si>
+  <si>
+    <t>mariarahnamaa</t>
+  </si>
+  <si>
+    <t>تولدشون خیلی مبارک باشه با آرزوی بهترین ها</t>
+  </si>
+  <si>
+    <t>za_sharif</t>
+  </si>
+  <si>
+    <t>نیما یوشیج در تولد یک سالگی فرزندش چنین گفت فرزندم یک بهار یک تابستان یک پاییز و یک زمستان را دیدی ادامه زندگی تکراریست جز مهربانی</t>
+  </si>
+  <si>
+    <t>خیلی مبارک باشه 😍😍همیشه شاد باشین</t>
+  </si>
+  <si>
+    <t>مبارکها باشه عزیزم. ان شاءالله همیشه تو خوشی❤️</t>
+  </si>
+  <si>
+    <t>jane_maryamh</t>
+  </si>
+  <si>
+    <t>مهربان ❤️ جانم ❤️ نفسم❤️ چقدر خوبی 😍 مادرتون خیلی خوشگلن 😢😢😢</t>
+  </si>
+  <si>
+    <t>byty6198</t>
+  </si>
+  <si>
+    <t>عزیزم کدوم رستوران هست اینجا؟</t>
+  </si>
+  <si>
+    <t>f.kiani_66</t>
+  </si>
+  <si>
+    <t>#تولدشون_مبارک🎁🎁🎈🎈🎈🎈🍻🍻🍻🍺🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂🎂</t>
+  </si>
+  <si>
+    <t>rooyaa._0</t>
+  </si>
+  <si>
+    <t>تو امروز تولدت جشن میگیری و من هم دوستی بی نظیرمان را جشن می گیرم.
+دوست من، بهترین اتفاق زندگی ام تولدت مبارک</t>
+  </si>
+  <si>
+    <t>تولدشون مبارک مری جون خوش باشین برای هم❤️❤️</t>
+  </si>
+  <si>
+    <t>kazhal___.kurd</t>
+  </si>
+  <si>
+    <t>با هیچ واژه ای نمی توانم احساسم نسبت به تو را توصیف کنم
+امیدوارم دوستی بین ما ابدی باشد.
+دوستت دارم تولدت مبارک</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>عزیزم تولد خواهر جان و جاری جان مبارک باشه دوبله مبارک باشه👏👏👏😍😍😍😍</t>
+  </si>
+  <si>
+    <t>akram_saeedi_58</t>
+  </si>
+  <si>
+    <t>ایول خواهر همیشه کنار همم😍😍😍😍</t>
+  </si>
+  <si>
+    <t>253.borjy</t>
+  </si>
+  <si>
+    <t>خداوند را سپاسگزارم که روح زیبایی همچون تو را وارد زندگی ام کرده است
+دوست خوبی همچون تو
+مانند گنجینه ای است که در هیچ جای دنیا نمی توان شبیه آن را پیدا کرد
+تولدت مبارک</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>💜🧡💜🧡💜🎀🧡💜🧡💜🧡پوستتون تیره شده؟
+نمیتونین لباسای خوشگل بپوشین؟
+اعتماد به نفست اومده پایین؟
+خجالت میکشی از تیرگی های بدنت؟
+اصلا اصلا نگران نباش ما یه پک فوق العاده داریم برای تیرگی ها که میتونین برای همه نواحی بدن هم استفادش کنید⁦☺️</t>
+  </si>
+  <si>
+    <t>mhdese._.beauty</t>
+  </si>
+  <si>
+    <t>خیلی مبارک باشه عزیزم ❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>zynab.hashmi_74</t>
+  </si>
+  <si>
+    <t>تاحالا شده بخوای بری جایی ندونی چی باید بپوشی؟یا ندونی لباسات به هم یا نه؟🤔ما میخوایم تو پیجمون کمکتون کنیم با هر اندامی که دارین بهترین استایل رو برای خودتون بسازین😍🌹😘🔥❤️🙌</t>
+  </si>
+  <si>
+    <t>مادر تون چقدر خوبن 😍😍😍</t>
+  </si>
+  <si>
+    <t>🍉
+اگه فکر میکنی یَلدا و کریسمَس تموم شده ⛄
+و دیگه نیازی به کادو خریدن نداری سَخت در اِشتباهی😅
+می‌دونم اینقدر قَلبت مِهربونه‌❤️⁩ که دوست داری دل عَزیزانِتو رو حتی بدون مُناسبت شاد کنی🤩
+پس میتونی رو کمک من حِساب کُنی😁
+پکهای زیبا و شیک براتون آماده کردم😋
+پَک لواشک که نَگم بَرات🤤
+چرا نمیای از نزدیک ببینی؟😳</t>
+  </si>
+  <si>
+    <t>slice_mive</t>
+  </si>
+  <si>
+    <t>❤️❤️❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>azitak2021</t>
+  </si>
+  <si>
+    <t>بهترین رژیم های لاغری💪
+بهترین حرکات ورزشی برای ازبین رفتن چربیهای شکم و پهلو،سفت شدن پوست،پرشدن صورت
+فقط کافیه به زیبایی و سلامتی خودت اهمیت بدی🌹🌹🌹🙌🔥</t>
+  </si>
+  <si>
+    <t>fitnes_nice</t>
+  </si>
+  <si>
+    <t>😍😍😍😍❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>ramisarab</t>
+  </si>
+  <si>
+    <t>انشالله سالیان سال کنارهم خوش باشین😍</t>
+  </si>
+  <si>
+    <t>زگیل تناسلی 🔥🔥🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>salamati_mohammadi</t>
+  </si>
+  <si>
+    <t>بمونین براهم همیشه قشنگ ترینها😍😍😍😍😍😍😍😍😍😍😍😍😍😍😍😍😍😍😍❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️👏👏👏👏👏👏👏👏❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>biyoti70</t>
+  </si>
+  <si>
+    <t>معلومه که موافقم.هر چقدرم که عزیزانمون برامون تکراری باشن ولی ما بیشتر و بیشتر دوستشون داریم😍😍😍😍</t>
+  </si>
+  <si>
+    <t>zahra.tahmasebi36</t>
+  </si>
+  <si>
+    <t>اگه همسرت پیشت نیست استوریمو حتما بیین❤😍</t>
+  </si>
+  <si>
+    <t>از بچگی آرزوم بوده کامنتم لایک بخوره😢😂</t>
+  </si>
+  <si>
+    <t>lebas_majlse__dast2</t>
+  </si>
+  <si>
+    <t>❣️❣️❣️❣️❣️</t>
+  </si>
+  <si>
+    <t>setya.ali84</t>
+  </si>
+  <si>
+    <t>فدات عشق جان 🥰😘😘😘😘😘😘🥰</t>
+  </si>
+  <si>
+    <t>s.n13313</t>
+  </si>
+  <si>
+    <t>چ عکس زیبایی👌</t>
+  </si>
+  <si>
+    <t>fatemeh.74320</t>
+  </si>
+  <si>
+    <t>عشقتون پایدار عزیز دلم😍😍😍❤️❤️</t>
+  </si>
+  <si>
+    <t>معرفتی گذاشتیم😍😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>خوشکل مهرربونم❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>انشالله همیشه دلتون شاد و لبتون خندون باشه عزیزمم ❤️</t>
+  </si>
+  <si>
+    <t>fatemeh_azamii80</t>
+  </si>
+  <si>
+    <t>عشقتون پایداربمونیدبرای هم😍😍</t>
+  </si>
+  <si>
+    <t>عشقتون پایدار</t>
+  </si>
+  <si>
+    <t>zahra_jb70</t>
+  </si>
+  <si>
+    <t>💜💜💜💜💜💜💜💜🧿🧿🧿🧿🧿🧿</t>
+  </si>
+  <si>
+    <t>محشر</t>
+  </si>
+  <si>
+    <t>__fatiio_0__</t>
+  </si>
+  <si>
+    <t>یه لایک کوچولو کنار کامنتم میتونه کلی به دیدن شدن کسب وکارم کمک کنه،شاید برای شما یک ثانیه هم طول نکشه ولی برای من یه دنیا ارزش داره؛ ممنون از دل مهربونتون❤❤</t>
+  </si>
+  <si>
+    <t>والا بخدا من‌نمیدونم‌مردم پول زیاد دارن یا واقعا نمیدونن!!!؟؟؟ما وارد کننده هستیم از ایتالیا و فرانسه همه اجناس داخل بازار رو که ۱۰ برابر ما گرونتر میدن رو از ماها تهیه میکنن چرا گرون میخرین یبارم که شده به مرکز اصلی پخش ما سر بزنین تموم وسایل ارایشی بهداشتی و حجمدهی و‌لیفت روز دنیا رو داریم و انگار خودتون مستقیم از ایتالیا و فرانسه خرید میکنین همین الان به پیجم سر بزنین ضرر نمیکنین 😉
+🧡💙💛💛❤️🤎🤎🤍🤍💚💜💜💜💜</t>
+  </si>
+  <si>
+    <t>zibaei_salamati74</t>
+  </si>
+  <si>
+    <t>❌آیا آرتا واقعا بچه ی دنیا جهانبخت است؟؟❌
+واکنش مهرداد جم به شایعات اخیر🔥🔥
+جزئیات تو استوریام هست💯💯💯</t>
+  </si>
+  <si>
+    <t>rish._perfect</t>
+  </si>
+  <si>
+    <t>زیبا جان😍😍😍😍❤️</t>
+  </si>
+  <si>
+    <t>lifestyl_parisa</t>
+  </si>
+  <si>
+    <t>_:
+💕 از تیرگی بدنتون خسته شدین؟؟
+💕 ترکهای بدنتون حس بدی بهتون میده؟؟🤦🏻‍♀️🤦🏻‍♀️🤦🏻‍♀️
+💕لک و جوش خسته تون کرده؟؟😰😰
+💕شل بودن پوستت کلافت کرده؟
+بیا تو پیجم ببین چه خبره😎😎
+👸🏻👸🏼دیگه وقتشه پرنسس رویاهای همسرت باشی💃💃</t>
+  </si>
+  <si>
+    <t>buty_zibayi</t>
+  </si>
+  <si>
+    <t>سلاااام عشقا🤩
+خانم های عزیز قدر خودتون رو بدونید😊
+دیگه دوران سخت کارکردن توخونه گذشت
+بیا توپیجم بانانو راحت و بی دغدغه زندگی کن😍😍😍
+🔥🔥استوریامو ازدست ندین🔥🔥</t>
+  </si>
+  <si>
+    <t>mahsa_nanosun</t>
+  </si>
+  <si>
+    <t>زیبای من😍😍😍😍</t>
+  </si>
+  <si>
+    <t>2princess_for_ever</t>
+  </si>
+  <si>
+    <t>مهربون 😘😘😘</t>
+  </si>
+  <si>
+    <t>sedna3544</t>
+  </si>
+  <si>
+    <t>ماشاالله 🧿🧿🧿</t>
+  </si>
+  <si>
+    <t>خدایا خودت مردم ایران رو با پک چاقی صورت امون آشنا کن که بفهمن با کمر باریک هم میتونن صورت پر و تو دل برو داشته باشن 🥺🥴❤😉</t>
+  </si>
+  <si>
+    <t>pouste.salem</t>
+  </si>
+  <si>
+    <t>مهربون🤗🤗🤗🤗</t>
+  </si>
+  <si>
+    <t>mahlamomeni2021</t>
+  </si>
+  <si>
+    <t>مهربونم 😘😘😘😘</t>
+  </si>
+  <si>
+    <t>miss_selena28</t>
+  </si>
+  <si>
+    <t>رفع تیرگی واژن و ناحیه بیکینی🌀😍🍃</t>
+  </si>
+  <si>
+    <t>beautypoost7</t>
+  </si>
+  <si>
+    <t>جانم😍😍😍</t>
+  </si>
+  <si>
+    <t>زیبا😍😍😍</t>
+  </si>
+  <si>
+    <t>😍😍😍😍😍👏👏👏👏👏👏👏👏</t>
+  </si>
+  <si>
+    <t>bahar1363_1</t>
+  </si>
+  <si>
+    <t>بی نظیر👏👏👏</t>
+  </si>
+  <si>
+    <t>زیباروی‌😍❤️🔥</t>
+  </si>
+  <si>
+    <t>bi.ti_7380</t>
+  </si>
+  <si>
+    <t>شکست‌ها و نگرانی‌هایت را رها کن
+خاطراتت را
+نمی‌گویم دور بریز، اما قاب‌شان نکن به دیوار دلت…
+در جاده زندگی
+نگاهت که به عقب باشد
+زمین می‌خوری…
+زخم بر می‌داری…
+و درد می‌کشی…
+نه از بی‌مهری کسی دلگیر شو …
+نه به محبت کسی بیش از حد دلگرم…
+به خاطر آنچه که از تو گرفته شده
+دلسرد مباش.
+تو چه می‌دانی؟
+شاید روزی… ساعتی… آرزوی نداشتنش را می‌کردی…
+تنها اعتماد کن و خود را به او بسپار …
+هیچ کس آنقدر قوی نیست که ساعت‌ها
+بر عکس نفس بکشد …
+در آینده لبخند بزن…
+این همان جایی است که باید باشی!
+هیج کس تو نخواهد شد
+آرامش سهم توست …</t>
+  </si>
+  <si>
+    <t>zanko.dokti</t>
+  </si>
+  <si>
+    <t>fatemeh.07562</t>
+  </si>
+  <si>
+    <t>میدونستید رقص چقدر فایده داره؟ .... اول از همه باعث شادی میشه .... دوم باعث انعطاف میشه ... سوم از افسردگی جلوگیری میکنه .... چهارم باعث میشه در لحظه باشی و...... بیا پیش من تا هم حالت بهتر بشه هم به خودت بیشتر توجه کنی ..... آموزش مجازی داریم(پک های آموزشی رقص)...آموزش حضوری هم برای کسایی که واکسن زدن راه افتاده... منتظر حضورت هستیم</t>
+  </si>
+  <si>
+    <t>worlddance.mag</t>
+  </si>
+  <si>
+    <t>❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>مریم عزیزم یلدات مباااااارک😍😍😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>عالییییی👏👏👏</t>
+  </si>
+  <si>
+    <t>ممنونم عزییزم. یلداتونم مبارک🥰🥰</t>
+  </si>
+  <si>
+    <t>cakepeach1</t>
+  </si>
+  <si>
+    <t>بهترین قرصهای چاقی صورت و اندام اصل♥️</t>
+  </si>
+  <si>
+    <t>tabib_markett</t>
+  </si>
+  <si>
+    <t>❤💚💚💚💚</t>
+  </si>
+  <si>
+    <t>helya_44799</t>
+  </si>
+  <si>
+    <t>💜💜💜💜💜</t>
+  </si>
+  <si>
+    <t>انشاالله زندگیتون پر از خوشی های فراوون و موفقیت های پی در پی باشه ؛ انشاالله همیشه حال دلتون خوب باشه و سلامت باشین ❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>_mobina.ghaedi_</t>
+  </si>
+  <si>
+    <t>انشاالله همیشه در کنار هم شاد و سلامت باشید 🙏🙏🙏</t>
+  </si>
+  <si>
+    <t>بهترین🔥🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>😍😍😍</t>
+  </si>
+  <si>
+    <t>🍉🍉🍉🍉🍉</t>
+  </si>
+  <si>
+    <t>🎻🎻🎻🎻</t>
+  </si>
+  <si>
+    <t>🔥🔥🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>زیبا😍😍😍😍</t>
+  </si>
+  <si>
+    <t>زیباترین❤️</t>
+  </si>
+  <si>
+    <t>دلت شاد</t>
+  </si>
+  <si>
+    <t>قشنگ</t>
+  </si>
+  <si>
+    <t>یلداتون مبارک</t>
+  </si>
+  <si>
+    <t>❤️❤️عزیزم❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>re.yhaneh2012</t>
+  </si>
+  <si>
+    <t>یلدات پیشاپیش مبارک</t>
+  </si>
+  <si>
+    <t>narges_naderi7474</t>
+  </si>
+  <si>
+    <t>👏👏👏👏👏عالی مثل همیشه مری زیبا و مهربون</t>
+  </si>
+  <si>
+    <t>sara.raz.ranjbar</t>
+  </si>
+  <si>
+    <t>قشنگم❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>یلدات مبارک عزیزم</t>
+  </si>
+  <si>
+    <t>❤️❤️</t>
+  </si>
+  <si>
+    <t>pransa._.a</t>
+  </si>
+  <si>
+    <t>عالی</t>
+  </si>
+  <si>
+    <t>galleri.shik.posh</t>
+  </si>
+  <si>
+    <t>مهربون</t>
+  </si>
+  <si>
+    <t>z_zmn.s090</t>
+  </si>
+  <si>
+    <t>خوش خنده</t>
+  </si>
+  <si>
+    <t>فوق العاده</t>
+  </si>
+  <si>
+    <t>ماشالله</t>
+  </si>
+  <si>
+    <t>zahra_tuuu</t>
+  </si>
+  <si>
+    <t>حرفه ای</t>
+  </si>
+  <si>
+    <t>زیبا</t>
+  </si>
+  <si>
+    <t>ایشالا ک ‌ خانوادمون بزرگتر بشه❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>farnaz13682</t>
+  </si>
+  <si>
+    <t>عالی😍😍😍😍😍❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️😍😍😍😍🔥🔥🔥🔥🔥🔥👏👏👏👏👏👏😍😍😍😍😍😍❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️😍😍😍😍🔥🔥🔥🔥🔥🔥👏👏👏👏👏👏😍😍😍😍😍😍❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>pari__2613</t>
+  </si>
+  <si>
+    <t>زیبای دوست داشتنی❤️❤️❤️❤️❤️❤️😍😍😍😍😍🔥🔥👏👏👏👏😍😍😍😍</t>
+  </si>
+  <si>
+    <t>#بهترینها_نصیب_دل_مهربونتون_بشه_🌷🌷🌷💐💐💐💕💕💕ایام_به_کام_مهرتون🌟🌟👏🌻🌻🌻🌻🌹🌹🌹_افزون_دلتون_شاد💝💝💝🌺🌺🌺🌺🌺_روز_و_روزگارتون_شاد🌺🌺🌺🌹🌹🌹🌹🌹🌹❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>❤️❤️❤️❤️❤️😍😍😍😍🔥🔥🔥🔥🔥🔥👏👏👏👏👏👏😍😍😍😍😍😍❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️😍😍😍😍🔥🔥🔥🔥🔥🔥👏👏👏👏👏👏😍😍😍😍😍😍❤️❤️❤️❤️❤️🔥🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>سومیننن کامنتتتت⁦❤️⁩⁦❤️⁩⁦❤️⁩</t>
+  </si>
+  <si>
+    <t>بنازم😍😍😍😍😍🔥🔥🔥🔥🔥🔥🔥🙌🙌🙌🙌❤️❤️❤️❤️❤️❤️❤️😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>مبارررررکهههه ‌عششششقم❤️❤️</t>
+  </si>
+  <si>
+    <t>عالی😍😍😍😍😍😍🔥🔥🔥🔥🔥👏👏👏👏❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️😍😍🔥🔥🔥🔥🔥🔥🔥🔥👏👏👏👏👏👏👏</t>
+  </si>
+  <si>
+    <t>تبریک تبریک ❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>yasa.man_1377</t>
+  </si>
+  <si>
+    <t>🔥🔥🔥🔥❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>😍😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>😍😍😍😍</t>
+  </si>
+  <si>
+    <t>😍😍😍😍😍😍😍❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>fereshteh.imani1</t>
+  </si>
+  <si>
+    <t>مری جون یعنی همه ی اونایی تو فالو داریم فالو کنیم شما از کجا میدونین ما فالو کردیم</t>
+  </si>
+  <si>
+    <t>_mohammadreza_d.0</t>
+  </si>
+  <si>
+    <t>جذاب خوشگل😍😍</t>
+  </si>
+  <si>
+    <t>sheida3958</t>
+  </si>
+  <si>
+    <t>فالو کردم مری جون.۱۵ ثانیه</t>
+  </si>
+  <si>
+    <t>mo_hmad5360</t>
+  </si>
+  <si>
+    <t>چقدرخوشکل ونازی عزیزم ❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>mojgan.4432</t>
+  </si>
+  <si>
+    <t>تاحالا شده بخوای بری جایی ندونی چی باید بپوشی؟یا ندونی لباسات به هم دیگه میان یا نه؟🤔ما میخوایم تو پیجمون کمکتون کنیم با هر اندامی که دارین بهترین استایل رو برای خودتون بسازین😍🌹😘🔥👏🔥👏</t>
+  </si>
+  <si>
+    <t>من فالو کردم</t>
+  </si>
+  <si>
+    <t>nani._cake</t>
+  </si>
+  <si>
+    <t>رنگ مو و ابروت خیلی بهت میاد مری جون😍🔥</t>
+  </si>
+  <si>
+    <t>ms_mamizadeh</t>
+  </si>
+  <si>
+    <t>زیبایی به تمام معنا</t>
+  </si>
+  <si>
+    <t>negi.kami</t>
+  </si>
+  <si>
+    <t>انشاالله</t>
+  </si>
+  <si>
+    <t>zamanianzari</t>
+  </si>
+  <si>
+    <t>اخ جون😍😍😍</t>
+  </si>
+  <si>
+    <t>hmide450</t>
+  </si>
+  <si>
+    <t>خوش ب حال اونی گ خوش شانسه...ما ک اصلا شانس نداریم..اونی ک برنده شد مبارکش باشه😍😍😍😍</t>
+  </si>
+  <si>
+    <t>mehry.66</t>
+  </si>
+  <si>
+    <t>لاغر شدی جذاب تری😍</t>
+  </si>
+  <si>
+    <t>پشاپیش شب یلداتون مبارک مری جون ❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>زندگی کوتاه تر ازاونیه که طعم میوه های خشک ارگانیک و نرم و تازه ی ما رو امتحان نکنی 😊</t>
+  </si>
+  <si>
+    <t>mivekhoshk_tootfarangi</t>
+  </si>
+  <si>
+    <t>عالی👏👏😍😍</t>
+  </si>
+  <si>
+    <t>وای وای عالی❤️❤️😍</t>
+  </si>
+  <si>
+    <t>mansourj100</t>
+  </si>
+  <si>
+    <t>اولین لایک و کامنت😍🔥🙌❤️</t>
+  </si>
+  <si>
+    <t>baran3202017</t>
+  </si>
+  <si>
+    <t>عشقم من فالو کردم انشالا من برنده بشم❤️</t>
+  </si>
+  <si>
+    <t>moosarah12900</t>
+  </si>
+  <si>
+    <t>وایی خدا 👏👏👏👏👏</t>
+  </si>
+  <si>
+    <t>👏👏👏</t>
+  </si>
+  <si>
+    <t>sosan.mahmoodiy.beram</t>
+  </si>
+  <si>
+    <t>عاشقتمممممم مری جون</t>
+  </si>
+  <si>
+    <t>sari_na658</t>
+  </si>
+  <si>
+    <t>اگه دوست داری ریزش موهات توی
+5روز کاملا قطع بشه،به پیجم سر بزن
+😍💜🦋</t>
+  </si>
+  <si>
+    <t>gile__dokhtar</t>
+  </si>
+  <si>
+    <t>تاحالا شده بخوای بری جایی ندونی چی باید بپوشی؟یا ندونی لباسات به هم دیگه میان یا نه؟🤔
+ما میخوایم تو پیجمون کمکتون کنیم با هر اندامی که دارین بهترین استایل رو برای خودتون بسازین😎🔥🙌🔥🙌</t>
+  </si>
+  <si>
+    <t>Jane janaaaaan😍👏🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>haniehh_azimiirad</t>
+  </si>
+  <si>
+    <t>اول بگم به به برای این همه خوشمزه میگه بیاید منو بخورید 😋😋😋😋 من شام دوس دارم مهمون بیاد چون واقعا سخته ناهار من به شخصه نمیتونم چون آروم کار میکنم 😁😁😁</t>
+  </si>
+  <si>
+    <t>romina.mohmmdin</t>
+  </si>
+  <si>
+    <t>خانم باسلیقه و کدبانو😍😍😍😍😍👌👌👌👌🌺🌺🌺🌺</t>
+  </si>
+  <si>
+    <t>همیشه دوس داشتم یه پک هایی آماده کنم که وقتی شما میخواین به عزیزانتون هدیه بدین اونا کلی ذوق کنن 🥺  هم سالم باشه هم لاکچری</t>
+  </si>
+  <si>
+    <t>سورمه های طبیعی جایگزین مناسب مداد چشم و ابرو بدون ریزش بدون حساسیت مخصوص خانمای باردار وکودکان که مجاز به استفاده ازموادشیمیایی نیستند</t>
+  </si>
+  <si>
+    <t>sormeh.asil</t>
+  </si>
+  <si>
+    <t>😍😍❤️ziba</t>
+  </si>
+  <si>
+    <t>چه با سلیقه وزیبا وشیک وتمیز 👏👏👏👏👏❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>fallah1172</t>
+  </si>
+  <si>
+    <t>به به خوش سلیقه جانم❤️❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>باسلیقه😍❤️</t>
+  </si>
+  <si>
+    <t>miss._.sana.84</t>
+  </si>
+  <si>
+    <t>برای شب راحتره😍😍😍</t>
+  </si>
+  <si>
+    <t>mohebbianna</t>
+  </si>
+  <si>
+    <t>❤️❤️❤️❤️❤️❤️❤️❤️❤️ماشاالله چشم حسود کور</t>
+  </si>
+  <si>
+    <t>7354mn</t>
+  </si>
+  <si>
+    <t>به به عالی😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>shabnam.porhosiyn</t>
+  </si>
+  <si>
+    <t>چقد قشنگ 😍😍😍😍😍❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>zh._hagigi</t>
+  </si>
+  <si>
+    <t>عشقی مری جونم ...انرژی میگیرم هر موقه پستاتو نگا میکنم😍</t>
+  </si>
+  <si>
+    <t>👏👏👏👏👏👏👏</t>
+  </si>
+  <si>
+    <t>زیبا😍</t>
+  </si>
+  <si>
+    <t>mohadeseh__style</t>
+  </si>
+  <si>
+    <t>تاحالا شده بخوای بری جایی ندونی چی باید بپوشی؟یا ندونی لباسات به هم دیگه میان یا نه؟🤔ما میخوایم تو پیجمون کمکتون کنیم با هر اندامی که دارین بهترین استایل رو برای خودتون بسازین😍🌹😘💅</t>
+  </si>
+  <si>
+    <t>😍😍</t>
+  </si>
+  <si>
+    <t>پرانرژی😍😍</t>
+  </si>
+  <si>
+    <t>fariba._afzali</t>
+  </si>
+  <si>
+    <t>خانم خوش سلیقه وبا ذوق 👏👏👏👏👏</t>
+  </si>
+  <si>
+    <t>zahra_sdghy_</t>
+  </si>
+  <si>
+    <t>چه کاریه کرایه تاکسی بدی
+بری منتظر بشینی برای بوتاکس؟
+اونم با کلی عووواررررض
+خب تو خونه با سرم لیفتینگ لاکچری بوتاکس کن🥰</t>
+  </si>
+  <si>
+    <t>love._.skiin</t>
+  </si>
+  <si>
+    <t>واقعا همیشه خانوم وباسلیقه ❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>pnahy_prysa</t>
+  </si>
+  <si>
+    <t>واقعا مری یه دونه ایی❤️❤️</t>
+  </si>
+  <si>
+    <t>bita.ghaderi.98</t>
+  </si>
+  <si>
+    <t>سلام مری جون بخدا من اینستا رو به عشق وذوق دیدن شما باز میکنم .دخترم میگه مامان اینترنت رو ببند تموم میشه میگم بذار مری جون نگاه کنم بعد .چون منم مثل شما عاشق گل وگیاه هستم. وبادیدنتون حالم همیشه خوب میشه .ممنونم ازشما بابت حال خوبی که به ما میدین .سپاسگزارم 🙏🙏🙏</t>
+  </si>
+  <si>
+    <t>#ارزشات💕💕_عالی💕_زیبا💜_رومانتیک💜💜_ماشاءالله_💕💕عشقی🔥👍👍_واکی💕💕_فدات💕💕💕💕💜💜😘😘😘😘_عشقی💕💕_💕💕💕_زیبا💜💜💜_💕💕💕💕💕_💕💕💕💜💜😘😘_واکی💕💕💕💕</t>
+  </si>
+  <si>
+    <t>والا اگه منم این خونه زندگی رو داشتم لذت می بردم بخدا کی از دل ما خبر داره همیشه شرمنده بچه هامون هستیم حالا ببین ملت چه خرجی روز چله بکنن ولی ما یه نارنگی ویه برنج وحالا بیا ببینچه خرجای میلیونی می کنن حالا نه اینکه نتونم دلخوشی مردمو ببین حسرت بچه ها این می بینن ودلشون میخواد</t>
+  </si>
+  <si>
+    <t>mosafer._619</t>
+  </si>
+  <si>
+    <t>مثل همیشه عالی مری جوون😍😍</t>
+  </si>
+  <si>
+    <t>برای داشتن موهای سالم 😍🌱
+[1/اول باید بدونی چجوری ازشون مراقبت کنی
+2/دوم باید بدونی که چجوری تغذیه شون رو تامین کنی ]
+....
+برای رسیدگی و مراقبت از موهات حتما پیجمون رو داشته باش
+بهت کمک میکنیم موهای بدون #وزی و #موخوره داشته باشی🌱❤</t>
+  </si>
+  <si>
+    <t>hdih_beauty</t>
+  </si>
+  <si>
+    <t>عزیزم این پادکست صلح درونه؟</t>
+  </si>
+  <si>
+    <t>arezou.k.1993</t>
+  </si>
+  <si>
+    <t>عالی😍😍👏👏</t>
+  </si>
+  <si>
+    <t>maryamahamdi522</t>
+  </si>
+  <si>
+    <t>بهترینی پرازانرژی مثبتی😍❤️</t>
+  </si>
+  <si>
+    <t>vahan__ramin</t>
+  </si>
+  <si>
+    <t>من تو پیجم آموزش های یلدایی دارم</t>
+  </si>
+  <si>
+    <t>ashpazi.yeganesadat</t>
+  </si>
+  <si>
+    <t>عالی هستی عزیز دلم😍😍😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>یعنی عاشقه سلیقه تم ❤️</t>
+  </si>
+  <si>
+    <t>دوست کدبانو و هنرمند خودم 😍❤️</t>
+  </si>
+  <si>
+    <t>sepiiid.yousefi</t>
+  </si>
+  <si>
+    <t>معلومه استقلالی باافتخاااار💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙</t>
+  </si>
+  <si>
+    <t>alla1396hassan</t>
+  </si>
+  <si>
+    <t>استقلال 💙💙💙💙💙💙</t>
+  </si>
+  <si>
+    <t>mhdieh.hi23</t>
+  </si>
+  <si>
+    <t>💙👑💙👑💙👑💙👑💙👑💙👑💙</t>
+  </si>
+  <si>
+    <t>استقلال 💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙💙</t>
+  </si>
+  <si>
+    <t>تاحالا شده بخوای بری جایی ندونی چی باید بپوشی؟یا ندونی لباسات به هم دیگه میان یا نه؟🤔
+ما میخوایم تو پیجمون کمکتون کنیم با هر اندامی که دارین بهترین استایل رو برای خودتون بسازین🤗😍😍🔥👏🔥</t>
+  </si>
+  <si>
+    <t>استقلال💙💙💙💙💙</t>
+  </si>
+  <si>
+    <t>💙💙💙💙</t>
+  </si>
+  <si>
+    <t>elhamshafazadeh</t>
+  </si>
+  <si>
+    <t>💙💙💙💙💙💙💙</t>
+  </si>
+  <si>
+    <t>elahe_lorestani6874</t>
+  </si>
+  <si>
+    <t>h.nofersti</t>
+  </si>
+  <si>
+    <t>😍😍👏</t>
+  </si>
+  <si>
+    <t>omde__scarf_</t>
+  </si>
+  <si>
+    <t>خانومایی که مشکلات پوستی مثل جوش و جای جوش دارن ب پیجم سر بزنن 🥰🌼</t>
+  </si>
+  <si>
+    <t>🌟💙🌟💙🌟💙🌟💙🌟💙</t>
+  </si>
+  <si>
+    <t>هردوشون گلم مثل خودتم</t>
+  </si>
+  <si>
+    <t>reza.sbr8563</t>
+  </si>
+  <si>
+    <t>عشقی</t>
+  </si>
+  <si>
+    <t>پرسپوليس❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>saeidehsadat_hoseyni</t>
+  </si>
+  <si>
+    <t>😍❤️</t>
+  </si>
+  <si>
+    <t>beautyy_bano</t>
+  </si>
+  <si>
+    <t>❤️</t>
+  </si>
+  <si>
+    <t>siavash.okhravi.2004</t>
+  </si>
+  <si>
+    <t>❤️❤️❤️❤️قشنگم</t>
+  </si>
+  <si>
+    <t>barsam_adrian_shahi</t>
+  </si>
+  <si>
+    <t>همیشه در کنار هم سلامت و خندان باشین خانواده گل😍😍😍</t>
+  </si>
+  <si>
+    <t>میشه از داداشتون و خانمشون هم عکس بزارید</t>
+  </si>
+  <si>
+    <t>____s.zh</t>
+  </si>
+  <si>
+    <t>میشه معرفت به خرج بدی این کامنت رو لایک کنی؟ شاید برای شما یک ثانیه هم طول نکشه ولی برای من یه دنیا ارزش داره، برای دیده شدن زحماتم به حمایت بزرگوارانی همچون شما نیازمندیم، ممنون از دل مهربونتون ❤️🙏</t>
+  </si>
+  <si>
+    <t>kif_kafsh_hajiarzonii</t>
+  </si>
+  <si>
+    <t>تاحالا شده بخوای بری جایی ندونی چی باید بپوشی؟یا ندونی لباسات به هم دیگه میان یا نه؟🤔ما میخوایم تو پیجمون کمکتون کنیم با هر اندامی که دارین بهترین استایل رو برای خودتون بسازین😍🌹😘🙌❤️</t>
+  </si>
+  <si>
+    <t>از بین اینهمه فالور فقط ۱۰نفر منو فالو کنند پیجم دیده میشه هم وطن</t>
+  </si>
+  <si>
+    <t>برای داشتن موهای سالم 😍🌱
+[1/اول باید بدونی چجوری ازشون مراقبت کنی
+2/دوم باید بدونی که چجوری تغذیه شون رو تامین کنی ]
+....
+برای رسیدگی و مراقبت از موهات حتما پیجمون رو داشته باش
+بهت کمک میکنیم موهای بدون #وزی و #موخوره داشته باشی❤🌱</t>
+  </si>
+  <si>
+    <t>☘☘☘☘☘☘☘☘☘☘☘☘
+اختلال هورمونی،قاعدگی نامنظم وکیست و تنبلی تخمدان خیلی تاثیر بدی روی اعصاب،پوست،بدن و زیبایی خانما میزاره😬🥴
+ولی هر دردی ی درمانی داره بیا توی پیجم تا درمان گیاهیشو بهت بگم😍
+🤍❤️🤍❤️🤍❤️🤍❤️🤍❤️🤍❤️🤍</t>
+  </si>
+  <si>
+    <t>salamati.pooryaghub</t>
+  </si>
+  <si>
+    <t>مری قشنگممم❤️</t>
+  </si>
+  <si>
+    <t>fan.mariifamily</t>
+  </si>
+  <si>
+    <t>👏👏👏👏👏👏👏👏👏👏👏</t>
+  </si>
+  <si>
+    <t>lebas_kif_kafsh_esf</t>
+  </si>
+  <si>
+    <t>مری عشقم دایرکت</t>
+  </si>
+  <si>
+    <t>_roya_morovati_</t>
+  </si>
+  <si>
+    <t>😍😍😍😍خوشگلم</t>
+  </si>
+  <si>
+    <t>خیلی باحـالی مری خانم، و خییییلی کـــدبانو و دلسـوز و باسلیـــقه 👏</t>
+  </si>
+  <si>
+    <t>sara.imaninasab</t>
+  </si>
+  <si>
+    <t>zalaghii6</t>
+  </si>
+  <si>
+    <t>دوستای عزیزم اگه دوست دارین خودتون گیاهانتون رو پرورش بدین و قلمه و تکثیر گلها و گیاهان آپارتمانی رو در منزل انجام بدین من در پیجم همه ی این آموزشها رو دارم🌻🌻🌻🌻🌻🌻🌻🌻🥰🥰🥰🥰🥰🥰🥰🌹🌹🌹🌹🌹🌹🌱🌱🌱🌱🌱🌱🌱🌱⚘⚘⚘⚘⚘⚘🏵</t>
+  </si>
+  <si>
+    <t>baghche_sabz_dena</t>
+  </si>
+  <si>
+    <t>یه خواهر بیحجاب یکی متوسط یکی با حجاب</t>
+  </si>
+  <si>
+    <t>zahra686411</t>
+  </si>
+  <si>
+    <t>🙌🙌🙌</t>
+  </si>
+  <si>
+    <t>saghr323</t>
+  </si>
+  <si>
     <t>عزیزم😍😍😍😍</t>
   </si>
   <si>
     <t>ario_avash_sarshar</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>🌸🌸🌸🌸🌸🌸
@@ -47,13 +1692,7 @@
     <t>gallery__norouzi</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>#امیدوارم_نگاه_پر_مهر_خدا_همراه_لحظه_هاتون🍇✨🌟🍇🌺✨🍇🌷🌺🌟✨🍇🌺🌟🎊💥🎊</t>
-  </si>
-  <si>
-    <t>dokhi_bala_0082</t>
   </si>
   <si>
     <t>#الهی_خدا_آنقدر_عاشقانہ_نگاهتون_کنه_که_حس_کنین_مهم_ترین_و_خوشبخت_ترین_موجود_کائنات_هستین___🌹🌾🌹🌾🌹🌾🌾🌱🌾🌾🌾</t>
@@ -61,12 +1700,6 @@
   <si>
     <t>تاحالا شده بخوای بری جایی ندونی چی باید بپوشی؟یا ندونی لباسات به هم دیگه میان یا نه؟🤔
 ما میخوایم تو پیجمون کمکتون کنیم با هر اندامی که دارین بهترین استایل رو برای خودتون بسازین🤗🔥❤️🙌</t>
-  </si>
-  <si>
-    <t>adahoo.ir</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>یعنی با وجود پیج من 😍😍😍😍😍😍
@@ -77,18 +1710,9 @@
     <t>weird_.woman</t>
   </si>
   <si>
-    <t>❤️❤️❤️</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>#امیدوارم_هر_برگی_که_از_درخت_می_افتد_آمینی_باشد_بر_استجابت_آرزوهایتان</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>💓💗💘💕💖💖💕💞❤️🎀❣️♥️🌹♥️🎀🎀❤️💗💞💕💖💕💞💗💓💓💗💞💕💖💝💝🌹🌹♥️❣️🎀❤️❤️🎀♥️🌹💝💝♥️🎀🎀❣️♥️💔💔💔💔💝💝🌹♥️❣️🎀🎀🎀🎀❣️💘💘💘💕</t>
   </si>
   <si>
@@ -98,19 +1722,10 @@
     <t>خوشکلم❤️❤️❤️❤️❤️</t>
   </si>
   <si>
-    <t>kazhal___.kurd</t>
-  </si>
-  <si>
     <t>کدبانو باسلیقه</t>
   </si>
   <si>
-    <t>akramsadeghii1364</t>
-  </si>
-  <si>
     <t>نوش جان عزیزم😍😍😍</t>
-  </si>
-  <si>
-    <t>_saharazimii</t>
   </si>
   <si>
     <t>❤️❤️❤️❤️👏👏👏</t>
@@ -138,9 +1753,6 @@
 هوای همدیگر رو داشته باشیم ❤️</t>
   </si>
   <si>
-    <t>selda.homedecor</t>
-  </si>
-  <si>
     <t>مری کد بانو😍</t>
   </si>
   <si>
@@ -150,30 +1762,701 @@
     <t>yousefpor5566</t>
   </si>
   <si>
-    <t>🥰صورت لاغر و پژمره رو بنداز دور
-یه روش دائمی واسه جیگر شدن صورتت 🥰
-⛔پریود دردناک رو فراموش کنین
-قاعدگی رو آسون بگذرونین⛔
-اینجا همه چی گیاهی و ارگانیکه
-بیا ببین چه خبره☘️💞☘️</t>
-  </si>
-  <si>
-    <t>nanosun_productt</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>ماری جون بیا از گوشواره های خوشگل من خرید کن😍</t>
   </si>
   <si>
-    <t>gaallery.aram</t>
-  </si>
-  <si>
     <t>مثل همیشه خوشگل وجذاب 😍😍👏👏</t>
   </si>
   <si>
     <t>masoumeh4840</t>
+  </si>
+  <si>
+    <t>سایه تیره اصلا نزن دیگه⁦🤦🏼‍♀️⁩</t>
+  </si>
+  <si>
+    <t>sahar309265</t>
+  </si>
+  <si>
+    <t>__zahra__sr</t>
+  </si>
+  <si>
+    <t>🙌</t>
+  </si>
+  <si>
+    <t>ffatiii26</t>
+  </si>
+  <si>
+    <t>شبیع جنا افتادی حالم بهم خورد💔</t>
+  </si>
+  <si>
+    <t>sahell_ershadiii</t>
+  </si>
+  <si>
+    <t>اصلا این آرایش بهت نمیادبینیت خیلی خیلی بدشده</t>
+  </si>
+  <si>
+    <t>zahra_74_b</t>
+  </si>
+  <si>
+    <t>آرایش روز تولد خیلی بیشتر بهتون اومده بود</t>
+  </si>
+  <si>
+    <t>elnaz.khorsandi25</t>
+  </si>
+  <si>
+    <t>نمیدونم چرا حس میکنم نحوه میکاپ بهت نمیاد هرسری خوشگلتر می‌شدی</t>
+  </si>
+  <si>
+    <t>تاحالا شده بخوای بری جایی ندونی چی باید بپوشی؟یا ندونی لباسات به هم دیگه میان یا نه؟🤔
+ما میخوایم تو پیجمون کمکتون کنیم با هر اندامی که دارین بهترین استایل رو برای خودتون بسازین🤗🤗😎</t>
+  </si>
+  <si>
+    <t>ارایشت قشنگ نیست چرا اینجوریت کرده ❤️</t>
+  </si>
+  <si>
+    <t>helia.2137</t>
+  </si>
+  <si>
+    <t>ولی معمولی که در استوری هستین خوب هستین هرکس شنارا ارایش کرده بی سلیقه بوده</t>
+  </si>
+  <si>
+    <t>behnaz.dddd</t>
+  </si>
+  <si>
+    <t>مری خوشکلم ❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>اگه میخواین پوستی سفید ، نرم و لطیف داشته باشید حتما به کل بدنتون نوره ی طبیعی بزنید، نوره موبر طبیعی هست که خواص درمانی زیادی داره، شما هر بار که نوره بزنید سموم و سودای بدن تخلیه میشه و این یک نوع شیمی درمانی طبیعی هست . با خروج سودا از بدن ، بیماری های مربوط به سودا مانند افسردگی ، واریس، فکر و خیال، وسواس، ترس زیاد، اضطراب، کک و مک ، لک های سودایی و... درمان میشه. حتما نوره رو طبق آدابش استفاده کنید ، فواید بیشمار نوره و آدابش رو میتونید از تو پیجم ببینید</t>
+  </si>
+  <si>
+    <t>mahsolate.dornika</t>
+  </si>
+  <si>
+    <t>#استوری_رو_از_دست_ندید😍😍</t>
+  </si>
+  <si>
+    <t>————————-
+رفع تخصصيlتيرگيlبدن🚫🚫
+.
+——————————————————-</t>
+  </si>
+  <si>
+    <t>kimia_beautyy_</t>
+  </si>
+  <si>
+    <t>#امیدوارم🌹همیشه🌸دراوج🌹🌸💎خوشبختی🌸سلامتی🌹شادکامی🌸در💎کنار🌹عزیزانتون🌹🌸💎🌹باششششششید</t>
+  </si>
+  <si>
+    <t>یک روز درمیان پست میزارید</t>
+  </si>
+  <si>
+    <t>ان قدر عمل کردی مع این جوری شدی</t>
+  </si>
+  <si>
+    <t>😍😍😍شاد و سلامت باشید همیشه</t>
+  </si>
+  <si>
+    <t>صورتت ب بدنت نمبخوره</t>
+  </si>
+  <si>
+    <t>rahasharifi767</t>
+  </si>
+  <si>
+    <t>خوشحال میشم به پیج من سر بزنییید ❤️❤️</t>
+  </si>
+  <si>
+    <t>004mersana</t>
+  </si>
+  <si>
+    <t>بخورمت جیگر</t>
+  </si>
+  <si>
+    <t>a09342021</t>
+  </si>
+  <si>
+    <t>e.z.ereshkii</t>
+  </si>
+  <si>
+    <t>باردارن ایشون؟</t>
+  </si>
+  <si>
+    <t>somizarrin66</t>
+  </si>
+  <si>
+    <t>عزیزم پیراهنتون حاضریه یا دوختین</t>
+  </si>
+  <si>
+    <t>pkhsymshyl</t>
+  </si>
+  <si>
+    <t>عروسی کیه</t>
+  </si>
+  <si>
+    <t>samaneh_mardanii</t>
+  </si>
+  <si>
+    <t>ای جان چی خوشکل شدی جگر</t>
+  </si>
+  <si>
+    <t>fereshta.alireza</t>
+  </si>
+  <si>
+    <t>خوشیخت بشین</t>
+  </si>
+  <si>
+    <t>kalate1371213</t>
+  </si>
+  <si>
+    <t>چرا مری فک میکنه جذابه</t>
+  </si>
+  <si>
+    <t>mahshid_74888</t>
+  </si>
+  <si>
+    <t>😍</t>
+  </si>
+  <si>
+    <t>fereshteh_vadi</t>
+  </si>
+  <si>
+    <t>gholamrezasari</t>
+  </si>
+  <si>
+    <t>قشنگ میرقصی</t>
+  </si>
+  <si>
+    <t>zeynab.abdolkhani692021</t>
+  </si>
+  <si>
+    <t>همیشه بخوشی</t>
+  </si>
+  <si>
+    <t>😍😍😍😍😍😍😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>mr.gasemzadeh_1</t>
+  </si>
+  <si>
+    <t>اولین بلاگری بینی عمل نکرده</t>
+  </si>
+  <si>
+    <t>s_a_mi7013</t>
+  </si>
+  <si>
+    <t>بایدسیخ داغ بکنن توکس پارت ازتوکونت دربیاد کمترمردموخرکن</t>
+  </si>
+  <si>
+    <t>ahmadrh73</t>
+  </si>
+  <si>
+    <t>1010parsa1010</t>
+  </si>
+  <si>
+    <t>اصیل 😍</t>
+  </si>
+  <si>
+    <t>far_zan_e78</t>
+  </si>
+  <si>
+    <t>😍😍😍🌸🌸🌸🌸</t>
+  </si>
+  <si>
+    <t>naniya1225</t>
+  </si>
+  <si>
+    <t>😍😍😍😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>❤️❤️🔥🔥</t>
+  </si>
+  <si>
+    <t>monabaran04</t>
+  </si>
+  <si>
+    <t>taghvaee_scarf</t>
+  </si>
+  <si>
+    <t>عالی🔥🔥</t>
+  </si>
+  <si>
+    <t>niki.1390.8</t>
+  </si>
+  <si>
+    <t>همه ﭼﻴﺰﺍﯼ ﺧﻮﺏ ﻣﺎﻝ ﻣﺮﺩﺍﺱ ...
+ﻧﻤﻮﻧﺶ ﻣﺎ خانم ها ... !
+ﻭﺍﻻ!!
+خدا سایمونو از سرشون کم نکنه!!</t>
+  </si>
+  <si>
+    <t>melek._._.shop</t>
+  </si>
+  <si>
+    <t>🔥</t>
+  </si>
+  <si>
+    <t>60_summer</t>
+  </si>
+  <si>
+    <t>❤️❤️😍😍</t>
+  </si>
+  <si>
+    <t>_m.a.00</t>
+  </si>
+  <si>
+    <t>خوشگل وجذاب❤️❤️</t>
+  </si>
+  <si>
+    <t>nadereh1099</t>
+  </si>
+  <si>
+    <t>چه شیرینی</t>
+  </si>
+  <si>
+    <t>ahope20202021</t>
+  </si>
+  <si>
+    <t>👌👌💥💥👍👍👍</t>
+  </si>
+  <si>
+    <t>maryamatharzade</t>
+  </si>
+  <si>
+    <t>وای عشقم چقدنازی</t>
+  </si>
+  <si>
+    <t>baran7893926</t>
+  </si>
+  <si>
+    <t>عالی عزیزم 😍</t>
+  </si>
+  <si>
+    <t>جووون</t>
+  </si>
+  <si>
+    <t>hamidreza.1379p</t>
+  </si>
+  <si>
+    <t>همتونو حریفم</t>
+  </si>
+  <si>
+    <t>اوووف</t>
+  </si>
+  <si>
+    <t>جان❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>خوش باشید</t>
+  </si>
+  <si>
+    <t>👏👏👏😍</t>
+  </si>
+  <si>
+    <t>shaghayegh_0_0_hamid</t>
+  </si>
+  <si>
+    <t>Hbd🎉🔔🎁</t>
+  </si>
+  <si>
+    <t>😍😍😍❤️❤️</t>
+  </si>
+  <si>
+    <t>dokhtare__paeiz70</t>
+  </si>
+  <si>
+    <t>مری جون ماشالا چه زیبا شدی</t>
+  </si>
+  <si>
+    <t>kiana.a123</t>
+  </si>
+  <si>
+    <t>😍😍😍😍👏</t>
+  </si>
+  <si>
+    <t>z.salehi.f</t>
+  </si>
+  <si>
+    <t>amirali_t31</t>
+  </si>
+  <si>
+    <t>fathmh6470</t>
+  </si>
+  <si>
+    <t>عروسک شدی ماشالله</t>
+  </si>
+  <si>
+    <t>asal.m.you</t>
+  </si>
+  <si>
+    <t>ننگ بر تو</t>
+  </si>
+  <si>
+    <t>mhaniyeh</t>
+  </si>
+  <si>
+    <t>عشقم خیلی خوشگلی</t>
+  </si>
+  <si>
+    <t>چ خوشگل شدی عزیزم😍</t>
+  </si>
+  <si>
+    <t>inas3712</t>
+  </si>
+  <si>
+    <t>😍😍😍😍عشقی</t>
+  </si>
+  <si>
+    <t>ماشالله زیبایی❤️😍</t>
+  </si>
+  <si>
+    <t>چهره جذابی دارید به دل میشینید❤️</t>
+  </si>
+  <si>
+    <t>somye_rahimi306</t>
+  </si>
+  <si>
+    <t>قشنگ😍</t>
+  </si>
+  <si>
+    <t>sana.ghasemi8</t>
+  </si>
+  <si>
+    <t>سلام جذاب 👏👏</t>
+  </si>
+  <si>
+    <t>ماشاالله به این همه زیبایی</t>
+  </si>
+  <si>
+    <t>sharifeh234</t>
+  </si>
+  <si>
+    <t>عزیزم ❤️</t>
+  </si>
+  <si>
+    <t>چقدخوشگلی واقعاااا😍😍😍</t>
+  </si>
+  <si>
+    <t>parisima_hakimi1374</t>
+  </si>
+  <si>
+    <t>❤️🙌🔥👏👏😍🎉</t>
+  </si>
+  <si>
+    <t>وای عزیزم</t>
+  </si>
+  <si>
+    <t>بمونید برای هم 😍</t>
+  </si>
+  <si>
+    <t>خوشبخت بشید❤️❤️❤️❤️❤️😍😍😍😍</t>
+  </si>
+  <si>
+    <t>ایشالا همیشه بخندی 😍❤️❤️</t>
+  </si>
+  <si>
+    <t>👏👏👏👏👏👏</t>
+  </si>
+  <si>
+    <t>zdcdzd</t>
+  </si>
+  <si>
+    <t>👏😍</t>
+  </si>
+  <si>
+    <t>gole_narges1997</t>
+  </si>
+  <si>
+    <t>hosse_in137900</t>
+  </si>
+  <si>
+    <t>🔥🔥</t>
+  </si>
+  <si>
+    <t>🙌🙌</t>
+  </si>
+  <si>
+    <t>sam.product</t>
+  </si>
+  <si>
+    <t>#شيك</t>
+  </si>
+  <si>
+    <t>shiftehakhavan</t>
+  </si>
+  <si>
+    <t>mojaan.mh</t>
+  </si>
+  <si>
+    <t>👌👍🌺🍀</t>
+  </si>
+  <si>
+    <t>parvaneh.all</t>
+  </si>
+  <si>
+    <t>paarii_p</t>
+  </si>
+  <si>
+    <t>mahssamhdv</t>
+  </si>
+  <si>
+    <t>sol2oush</t>
+  </si>
+  <si>
+    <t>💫</t>
+  </si>
+  <si>
+    <t>eyesun.khv</t>
+  </si>
+  <si>
+    <t>It’s damn hard but I keep trying</t>
+  </si>
+  <si>
+    <t>ped_pj</t>
+  </si>
+  <si>
+    <t>Vooy😍🤍💫</t>
+  </si>
+  <si>
+    <t>parastoo_tt_</t>
+  </si>
+  <si>
+    <t>🤎</t>
+  </si>
+  <si>
+    <t>👌👏👏👏🌹</t>
+  </si>
+  <si>
+    <t>r.khast</t>
+  </si>
+  <si>
+    <t>🤎🍪</t>
+  </si>
+  <si>
+    <t>🤎🤎</t>
+  </si>
+  <si>
+    <t>mohamad_bd_</t>
+  </si>
+  <si>
+    <t>👍🏽</t>
+  </si>
+  <si>
+    <t>iloveiranianshoes</t>
+  </si>
+  <si>
+    <t>كلاسيك قهوه اي👌🏻👌🏻</t>
+  </si>
+  <si>
+    <t>Perfecto👌🏻</t>
+  </si>
+  <si>
+    <t>🤩😍🤩😍</t>
+  </si>
+  <si>
+    <t>😍😮👏👏👏👏</t>
+  </si>
+  <si>
+    <t>🔥😍🙌</t>
+  </si>
+  <si>
+    <t>mahso0o0w</t>
+  </si>
+  <si>
+    <t>💙💙</t>
+  </si>
+  <si>
+    <t>👏👏👌🌹🌹🌹</t>
+  </si>
+  <si>
+    <t>💙💙💙</t>
+  </si>
+  <si>
+    <t>_pegah.b.1992_</t>
+  </si>
+  <si>
+    <t>❤️✌🏻</t>
+  </si>
+  <si>
+    <t>👏🔥👏🔥</t>
+  </si>
+  <si>
+    <t>👏👏👏👏😍</t>
+  </si>
+  <si>
+    <t>👏🔥😍</t>
+  </si>
+  <si>
+    <t>😮😮</t>
+  </si>
+  <si>
+    <t>💙🔥</t>
+  </si>
+  <si>
+    <t>💙</t>
+  </si>
+  <si>
+    <t>modikacollection</t>
+  </si>
+  <si>
+    <t>👏👌🌹🌹🌹</t>
+  </si>
+  <si>
+    <t>mohammadfarzanehpour</t>
+  </si>
+  <si>
+    <t>👏👏</t>
+  </si>
+  <si>
+    <t>elahe__techno</t>
+  </si>
+  <si>
+    <t>💥💥💥</t>
+  </si>
+  <si>
+    <t>🤍</t>
+  </si>
+  <si>
+    <t>✨✨✨</t>
+  </si>
+  <si>
+    <t>هنوزم بی نظیر</t>
+  </si>
+  <si>
+    <t>👌👌🌹🌹🌹🌹👏👏👏👏</t>
+  </si>
+  <si>
+    <t>👌👌👌</t>
+  </si>
+  <si>
+    <t>آقا من از شما خواهش میکنم دوباره جا کلیدی هاتون یا Keychain هاتون رو موجود کنید 😢</t>
+  </si>
+  <si>
+    <t>hadi_sheykhan</t>
+  </si>
+  <si>
+    <t>👀👌🏻</t>
+  </si>
+  <si>
+    <t>callmesaaaaaaam</t>
+  </si>
+  <si>
+    <t>🦋</t>
+  </si>
+  <si>
+    <t>❤️👌🏻</t>
+  </si>
+  <si>
+    <t>elahenikoo</t>
+  </si>
+  <si>
+    <t>جنس کارها چیه دقیقا؟چرم مصنوعی با طبیعی</t>
+  </si>
+  <si>
+    <t>xlinax1818</t>
+  </si>
+  <si>
+    <t>این طرح واقعا جذاب و خاصه👏👏👏</t>
+  </si>
+  <si>
+    <t>من طرفدار كيف پول هاي طرح دارتون مثل همين مدل هستم😍❤️✌🏻</t>
+  </si>
+  <si>
+    <t>🐉🔥</t>
+  </si>
+  <si>
+    <t>😍🔥</t>
+  </si>
+  <si>
+    <t>👏🔥</t>
+  </si>
+  <si>
+    <t>عاليه👏</t>
+  </si>
+  <si>
+    <t>بسيار زيبا و ظريف و جذابه حتماً مزاحمتون ميشم 👏👌🌿🌸</t>
+  </si>
+  <si>
+    <t>واقعا این مدلتون جذابه🔥من خیلی کار هاتون رو دوست دارم به نظرم برای هدیه عالیه😍 حتما یه روز مزاحمتون میشم🙏🏻</t>
+  </si>
+  <si>
+    <t>yasmin_yazdan</t>
+  </si>
+  <si>
+    <t>كمیاب یانی چی لطفا؟</t>
+  </si>
+  <si>
+    <t>shalaw__pvt</t>
+  </si>
+  <si>
+    <t>👏</t>
+  </si>
+  <si>
+    <t>wiiipaint</t>
+  </si>
+  <si>
+    <t>ramakostad</t>
+  </si>
+  <si>
+    <t>🗽</t>
+  </si>
+  <si>
+    <t>🔮</t>
+  </si>
+  <si>
+    <t>👏🏻👏🏻👏🏻</t>
+  </si>
+  <si>
+    <t>🔥🔥❤️</t>
+  </si>
+  <si>
+    <t>hedie.esmaeili</t>
+  </si>
+  <si>
+    <t>Aliiiie🔥👏</t>
+  </si>
+  <si>
+    <t>👌👏🌹</t>
+  </si>
+  <si>
+    <t>😍👏</t>
+  </si>
+  <si>
+    <t>👏👏👏موفق باشید</t>
+  </si>
+  <si>
+    <t>rokhsar.gallery</t>
+  </si>
+  <si>
+    <t>🖤🖤</t>
+  </si>
+  <si>
+    <t>🖤🖤🖤🖤</t>
+  </si>
+  <si>
+    <t>🌸🌿💖👏👏</t>
+  </si>
+  <si>
+    <t>😮🔥</t>
+  </si>
+  <si>
+    <t>👌🌹👏👏</t>
+  </si>
+  <si>
+    <t>چرا کیف کتی مردونه نمیزنین؟</t>
+  </si>
+  <si>
+    <t>rezamoharamzadeh</t>
+  </si>
+  <si>
+    <t>🖤🖤🖤🖤🖤</t>
+  </si>
+  <si>
+    <t>🤍👌🏻</t>
+  </si>
+  <si>
+    <t>zhaav.madee</t>
+  </si>
+  <si>
+    <t>bardia__barati</t>
   </si>
 </sst>
 </file>
@@ -505,7 +2788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -575,10 +2858,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -586,13 +2869,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -600,13 +2883,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -614,13 +2897,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -628,13 +2911,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -642,13 +2925,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -656,13 +2939,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -676,7 +2959,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -687,7 +2970,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -698,13 +2981,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -712,13 +2995,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -726,13 +3009,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -740,13 +3023,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -754,13 +3037,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -768,13 +3051,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -782,10 +3065,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -796,13 +3079,7041 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" t="s">
+        <v>158</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>196</v>
+      </c>
+      <c r="C108" t="s">
+        <v>197</v>
+      </c>
+      <c r="D108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>198</v>
+      </c>
+      <c r="C109" t="s">
+        <v>199</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" t="s">
+        <v>153</v>
+      </c>
+      <c r="D110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" t="s">
+        <v>201</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>207</v>
+      </c>
+      <c r="C115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>209</v>
+      </c>
+      <c r="C116" t="s">
+        <v>210</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>211</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>213</v>
+      </c>
+      <c r="C118" t="s">
+        <v>214</v>
+      </c>
+      <c r="D118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>215</v>
+      </c>
+      <c r="C119" t="s">
+        <v>216</v>
+      </c>
+      <c r="D119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>217</v>
+      </c>
+      <c r="C120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>218</v>
+      </c>
+      <c r="C121" t="s">
+        <v>197</v>
+      </c>
+      <c r="D121" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>219</v>
+      </c>
+      <c r="C122" t="s">
+        <v>220</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" t="s">
+        <v>222</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>223</v>
+      </c>
+      <c r="C124" t="s">
+        <v>224</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>225</v>
+      </c>
+      <c r="C125" t="s">
+        <v>226</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>227</v>
+      </c>
+      <c r="C126" t="s">
+        <v>69</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>228</v>
+      </c>
+      <c r="C127" t="s">
+        <v>229</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>232</v>
+      </c>
+      <c r="C129" t="s">
+        <v>233</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>234</v>
+      </c>
+      <c r="C130" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>237</v>
+      </c>
+      <c r="C132" t="s">
+        <v>238</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" t="s">
+        <v>240</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" t="s">
+        <v>242</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>243</v>
+      </c>
+      <c r="C135" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>244</v>
+      </c>
+      <c r="C136" t="s">
+        <v>222</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137" t="s">
+        <v>111</v>
+      </c>
+      <c r="D137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>246</v>
+      </c>
+      <c r="C138" t="s">
+        <v>247</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>248</v>
+      </c>
+      <c r="C139" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>249</v>
+      </c>
+      <c r="C140" t="s">
+        <v>250</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" t="s">
+        <v>222</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>252</v>
+      </c>
+      <c r="C142" t="s">
+        <v>253</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>254</v>
+      </c>
+      <c r="C143" t="s">
+        <v>236</v>
+      </c>
+      <c r="D143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144" t="s">
+        <v>256</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>257</v>
+      </c>
+      <c r="C145" t="s">
+        <v>258</v>
+      </c>
+      <c r="D145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>259</v>
+      </c>
+      <c r="C146" t="s">
+        <v>260</v>
+      </c>
+      <c r="D146" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>261</v>
+      </c>
+      <c r="C147" t="s">
+        <v>262</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>263</v>
+      </c>
+      <c r="C148" t="s">
+        <v>264</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>265</v>
+      </c>
+      <c r="C149" t="s">
+        <v>266</v>
+      </c>
+      <c r="D149" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>267</v>
+      </c>
+      <c r="C150" t="s">
+        <v>268</v>
+      </c>
+      <c r="D150" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>269</v>
+      </c>
+      <c r="C151" t="s">
+        <v>268</v>
+      </c>
+      <c r="D151" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>270</v>
+      </c>
+      <c r="C153" t="s">
+        <v>271</v>
+      </c>
+      <c r="D153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>272</v>
+      </c>
+      <c r="C154" t="s">
+        <v>273</v>
+      </c>
+      <c r="D154" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>274</v>
+      </c>
+      <c r="C155" t="s">
+        <v>275</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>276</v>
+      </c>
+      <c r="C156" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>278</v>
+      </c>
+      <c r="C157" t="s">
+        <v>210</v>
+      </c>
+      <c r="D157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>279</v>
+      </c>
+      <c r="C158" t="s">
+        <v>268</v>
+      </c>
+      <c r="D158" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>280</v>
+      </c>
+      <c r="C159" t="s">
+        <v>281</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>282</v>
+      </c>
+      <c r="C160" t="s">
+        <v>268</v>
+      </c>
+      <c r="D160" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>283</v>
+      </c>
+      <c r="C161" t="s">
+        <v>284</v>
+      </c>
+      <c r="D161" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>285</v>
+      </c>
+      <c r="C162" t="s">
+        <v>286</v>
+      </c>
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" t="s">
+        <v>287</v>
+      </c>
+      <c r="D163" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>288</v>
+      </c>
+      <c r="C164" t="s">
+        <v>289</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>290</v>
+      </c>
+      <c r="C165" t="s">
+        <v>275</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>291</v>
+      </c>
+      <c r="C166" t="s">
+        <v>51</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>292</v>
+      </c>
+      <c r="C167" t="s">
+        <v>275</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>293</v>
+      </c>
+      <c r="C168" t="s">
+        <v>294</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>295</v>
+      </c>
+      <c r="C169" t="s">
+        <v>296</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>297</v>
+      </c>
+      <c r="C170" t="s">
+        <v>298</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>299</v>
+      </c>
+      <c r="C171" t="s">
+        <v>298</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>300</v>
+      </c>
+      <c r="C172" t="s">
+        <v>301</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" t="s">
+        <v>302</v>
+      </c>
+      <c r="C173" t="s">
+        <v>275</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>303</v>
+      </c>
+      <c r="C174" t="s">
+        <v>275</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>304</v>
+      </c>
+      <c r="C175" t="s">
+        <v>153</v>
+      </c>
+      <c r="D175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>305</v>
+      </c>
+      <c r="C176" t="s">
+        <v>298</v>
+      </c>
+      <c r="D176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>306</v>
+      </c>
+      <c r="C177" t="s">
+        <v>298</v>
+      </c>
+      <c r="D177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>307</v>
+      </c>
+      <c r="C178" t="s">
+        <v>298</v>
+      </c>
+      <c r="D178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>308</v>
+      </c>
+      <c r="C179" t="s">
+        <v>298</v>
+      </c>
+      <c r="D179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>309</v>
+      </c>
+      <c r="C180" t="s">
+        <v>275</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>83</v>
+      </c>
+      <c r="C181" t="s">
+        <v>298</v>
+      </c>
+      <c r="D181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>310</v>
+      </c>
+      <c r="C182" t="s">
+        <v>284</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>311</v>
+      </c>
+      <c r="C183" t="s">
+        <v>253</v>
+      </c>
+      <c r="D183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" t="s">
+        <v>312</v>
+      </c>
+      <c r="C184" t="s">
+        <v>153</v>
+      </c>
+      <c r="D184" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>313</v>
+      </c>
+      <c r="C185" t="s">
+        <v>153</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>314</v>
+      </c>
+      <c r="C186" t="s">
+        <v>315</v>
+      </c>
+      <c r="D186" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" t="s">
+        <v>316</v>
+      </c>
+      <c r="C187" t="s">
+        <v>317</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" t="s">
+        <v>318</v>
+      </c>
+      <c r="C188" t="s">
+        <v>319</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" t="s">
+        <v>320</v>
+      </c>
+      <c r="C189" t="s">
+        <v>204</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>321</v>
+      </c>
+      <c r="C190" t="s">
+        <v>317</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>322</v>
+      </c>
+      <c r="C191" t="s">
+        <v>323</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" t="s">
+        <v>324</v>
+      </c>
+      <c r="C192" t="s">
+        <v>325</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" t="s">
+        <v>326</v>
+      </c>
+      <c r="C193" t="s">
+        <v>327</v>
+      </c>
+      <c r="D193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" t="s">
+        <v>161</v>
+      </c>
+      <c r="C194" t="s">
+        <v>153</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" t="s">
+        <v>321</v>
+      </c>
+      <c r="C195" t="s">
+        <v>327</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" t="s">
+        <v>304</v>
+      </c>
+      <c r="C196" t="s">
+        <v>153</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>328</v>
+      </c>
+      <c r="C197" t="s">
+        <v>327</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" t="s">
+        <v>329</v>
+      </c>
+      <c r="C198" t="s">
+        <v>325</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" t="s">
+        <v>330</v>
+      </c>
+      <c r="C199" t="s">
+        <v>331</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>332</v>
+      </c>
+      <c r="C200" t="s">
+        <v>325</v>
+      </c>
+      <c r="D200" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s">
+        <v>333</v>
+      </c>
+      <c r="C201" t="s">
+        <v>153</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s">
+        <v>334</v>
+      </c>
+      <c r="C202" t="s">
+        <v>335</v>
+      </c>
+      <c r="D202" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s">
+        <v>336</v>
+      </c>
+      <c r="C203" t="s">
+        <v>337</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>338</v>
+      </c>
+      <c r="C204" t="s">
+        <v>337</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" t="s">
+        <v>339</v>
+      </c>
+      <c r="C205" t="s">
+        <v>337</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>339</v>
+      </c>
+      <c r="C206" t="s">
+        <v>337</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" t="s">
+        <v>295</v>
+      </c>
+      <c r="C207" t="s">
+        <v>296</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" t="s">
+        <v>340</v>
+      </c>
+      <c r="C208" t="s">
+        <v>337</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" t="s">
+        <v>336</v>
+      </c>
+      <c r="C209" t="s">
+        <v>337</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" t="s">
+        <v>341</v>
+      </c>
+      <c r="C210" t="s">
+        <v>337</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" t="s">
+        <v>342</v>
+      </c>
+      <c r="C211" t="s">
+        <v>337</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>343</v>
+      </c>
+      <c r="C212" t="s">
+        <v>335</v>
+      </c>
+      <c r="D212" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s">
+        <v>344</v>
+      </c>
+      <c r="C213" t="s">
+        <v>337</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" t="s">
+        <v>344</v>
+      </c>
+      <c r="C214" t="s">
+        <v>337</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" t="s">
+        <v>345</v>
+      </c>
+      <c r="C215" t="s">
+        <v>346</v>
+      </c>
+      <c r="D215" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" t="s">
+        <v>347</v>
+      </c>
+      <c r="C216" t="s">
+        <v>337</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" t="s">
+        <v>348</v>
+      </c>
+      <c r="C217" t="s">
+        <v>337</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" t="s">
+        <v>349</v>
+      </c>
+      <c r="C218" t="s">
+        <v>337</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s">
+        <v>350</v>
+      </c>
+      <c r="C219" t="s">
+        <v>337</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" t="s">
+        <v>351</v>
+      </c>
+      <c r="C220" t="s">
+        <v>337</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" t="s">
+        <v>305</v>
+      </c>
+      <c r="C221" t="s">
+        <v>337</v>
+      </c>
+      <c r="D221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>352</v>
+      </c>
+      <c r="C222" t="s">
+        <v>353</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" t="s">
+        <v>354</v>
+      </c>
+      <c r="C223" t="s">
+        <v>355</v>
+      </c>
+      <c r="D223" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" t="s">
+        <v>356</v>
+      </c>
+      <c r="C224" t="s">
+        <v>357</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>358</v>
+      </c>
+      <c r="C225" t="s">
+        <v>359</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" t="s">
+        <v>360</v>
+      </c>
+      <c r="C226" t="s">
+        <v>361</v>
+      </c>
+      <c r="D226" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227" t="s">
+        <v>362</v>
+      </c>
+      <c r="C227" t="s">
+        <v>57</v>
+      </c>
+      <c r="D227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" t="s">
+        <v>363</v>
+      </c>
+      <c r="C228" t="s">
+        <v>364</v>
+      </c>
+      <c r="D228" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" t="s">
+        <v>365</v>
+      </c>
+      <c r="C229" t="s">
+        <v>366</v>
+      </c>
+      <c r="D229" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" t="s">
+        <v>367</v>
+      </c>
+      <c r="C230" t="s">
+        <v>368</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" t="s">
+        <v>369</v>
+      </c>
+      <c r="C231" t="s">
+        <v>370</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>371</v>
+      </c>
+      <c r="C232" t="s">
+        <v>372</v>
+      </c>
+      <c r="D232" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" t="s">
+        <v>373</v>
+      </c>
+      <c r="C233" t="s">
+        <v>374</v>
+      </c>
+      <c r="D233" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" t="s">
+        <v>375</v>
+      </c>
+      <c r="C234" t="s">
+        <v>368</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" t="s">
+        <v>376</v>
+      </c>
+      <c r="C235" t="s">
+        <v>301</v>
+      </c>
+      <c r="D235" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236" t="s">
+        <v>377</v>
+      </c>
+      <c r="C236" t="s">
+        <v>378</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" t="s">
+        <v>379</v>
+      </c>
+      <c r="C237" t="s">
+        <v>57</v>
+      </c>
+      <c r="D237" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" t="s">
+        <v>380</v>
+      </c>
+      <c r="C238" t="s">
+        <v>381</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" t="s">
+        <v>382</v>
+      </c>
+      <c r="C239" t="s">
+        <v>383</v>
+      </c>
+      <c r="D239" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" t="s">
+        <v>384</v>
+      </c>
+      <c r="C240" t="s">
+        <v>385</v>
+      </c>
+      <c r="D240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" t="s">
+        <v>386</v>
+      </c>
+      <c r="C241" t="s">
+        <v>216</v>
+      </c>
+      <c r="D241" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" t="s">
+        <v>387</v>
+      </c>
+      <c r="C242" t="s">
+        <v>388</v>
+      </c>
+      <c r="D242" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" t="s">
+        <v>389</v>
+      </c>
+      <c r="C243" t="s">
+        <v>390</v>
+      </c>
+      <c r="D243" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" t="s">
+        <v>391</v>
+      </c>
+      <c r="C244" t="s">
+        <v>392</v>
+      </c>
+      <c r="D244" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" t="s">
+        <v>393</v>
+      </c>
+      <c r="C245" t="s">
+        <v>57</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" t="s">
+        <v>394</v>
+      </c>
+      <c r="C246" t="s">
+        <v>395</v>
+      </c>
+      <c r="D246" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" t="s">
+        <v>396</v>
+      </c>
+      <c r="C247" t="s">
+        <v>397</v>
+      </c>
+      <c r="D247" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248" t="s">
+        <v>398</v>
+      </c>
+      <c r="C248" t="s">
+        <v>43</v>
+      </c>
+      <c r="D248" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249" t="s">
+        <v>399</v>
+      </c>
+      <c r="C249" t="s">
+        <v>378</v>
+      </c>
+      <c r="D249" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" t="s">
+        <v>400</v>
+      </c>
+      <c r="C250" t="s">
+        <v>401</v>
+      </c>
+      <c r="D250" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" t="s">
+        <v>402</v>
+      </c>
+      <c r="C251" t="s">
+        <v>395</v>
+      </c>
+      <c r="D251" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>403</v>
+      </c>
+      <c r="C252" t="s">
+        <v>404</v>
+      </c>
+      <c r="D252" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" t="s">
+        <v>405</v>
+      </c>
+      <c r="C253" t="s">
+        <v>204</v>
+      </c>
+      <c r="D253" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" t="s">
+        <v>406</v>
+      </c>
+      <c r="C254" t="s">
+        <v>407</v>
+      </c>
+      <c r="D254" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" t="s">
+        <v>408</v>
+      </c>
+      <c r="C255" t="s">
+        <v>409</v>
+      </c>
+      <c r="D255" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" t="s">
+        <v>410</v>
+      </c>
+      <c r="C256" t="s">
+        <v>411</v>
+      </c>
+      <c r="D256" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" t="s">
+        <v>412</v>
+      </c>
+      <c r="C257" t="s">
+        <v>413</v>
+      </c>
+      <c r="D257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" t="s">
+        <v>414</v>
+      </c>
+      <c r="C258" t="s">
+        <v>415</v>
+      </c>
+      <c r="D258" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" t="s">
+        <v>416</v>
+      </c>
+      <c r="C259" t="s">
+        <v>374</v>
+      </c>
+      <c r="D259" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" t="s">
+        <v>417</v>
+      </c>
+      <c r="C260" t="s">
+        <v>220</v>
+      </c>
+      <c r="D260" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" t="s">
+        <v>418</v>
+      </c>
+      <c r="C261" t="s">
+        <v>419</v>
+      </c>
+      <c r="D261" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" t="s">
+        <v>420</v>
+      </c>
+      <c r="C262" t="s">
+        <v>57</v>
+      </c>
+      <c r="D262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" t="s">
+        <v>421</v>
+      </c>
+      <c r="C263" t="s">
+        <v>57</v>
+      </c>
+      <c r="D263" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>422</v>
+      </c>
+      <c r="C264" t="s">
+        <v>423</v>
+      </c>
+      <c r="D264" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" t="s">
+        <v>424</v>
+      </c>
+      <c r="C265" t="s">
+        <v>425</v>
+      </c>
+      <c r="D265" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" t="s">
+        <v>426</v>
+      </c>
+      <c r="C266" t="s">
+        <v>427</v>
+      </c>
+      <c r="D266" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" t="s">
+        <v>428</v>
+      </c>
+      <c r="C267" t="s">
+        <v>429</v>
+      </c>
+      <c r="D267" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" t="s">
+        <v>430</v>
+      </c>
+      <c r="C268" t="s">
+        <v>431</v>
+      </c>
+      <c r="D268" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" t="s">
+        <v>432</v>
+      </c>
+      <c r="C269" t="s">
+        <v>429</v>
+      </c>
+      <c r="D269" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" t="s">
+        <v>433</v>
+      </c>
+      <c r="C270" t="s">
+        <v>153</v>
+      </c>
+      <c r="D270" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" t="s">
+        <v>434</v>
+      </c>
+      <c r="C271" t="s">
+        <v>435</v>
+      </c>
+      <c r="D271" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" t="s">
+        <v>436</v>
+      </c>
+      <c r="C272" t="s">
+        <v>423</v>
+      </c>
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" t="s">
+        <v>437</v>
+      </c>
+      <c r="C273" t="s">
+        <v>438</v>
+      </c>
+      <c r="D273" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" t="s">
+        <v>439</v>
+      </c>
+      <c r="C274" t="s">
+        <v>440</v>
+      </c>
+      <c r="D274" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" t="s">
+        <v>441</v>
+      </c>
+      <c r="C275" t="s">
+        <v>442</v>
+      </c>
+      <c r="D275" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B276" t="s">
+        <v>443</v>
+      </c>
+      <c r="C276" t="s">
+        <v>444</v>
+      </c>
+      <c r="D276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" t="s">
+        <v>295</v>
+      </c>
+      <c r="C277" t="s">
+        <v>296</v>
+      </c>
+      <c r="D277" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" t="s">
+        <v>445</v>
+      </c>
+      <c r="C278" t="s">
+        <v>446</v>
+      </c>
+      <c r="D278" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" t="s">
+        <v>447</v>
+      </c>
+      <c r="C279" t="s">
+        <v>51</v>
+      </c>
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>448</v>
+      </c>
+      <c r="C280" t="s">
+        <v>431</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" t="s">
+        <v>449</v>
+      </c>
+      <c r="C281" t="s">
+        <v>450</v>
+      </c>
+      <c r="D281" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" t="s">
+        <v>451</v>
+      </c>
+      <c r="C282" t="s">
+        <v>452</v>
+      </c>
+      <c r="D282" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B283" t="s">
+        <v>83</v>
+      </c>
+      <c r="C283" t="s">
+        <v>413</v>
+      </c>
+      <c r="D283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284" t="s">
+        <v>453</v>
+      </c>
+      <c r="C284" t="s">
+        <v>454</v>
+      </c>
+      <c r="D284" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285" t="s">
+        <v>455</v>
+      </c>
+      <c r="C285" t="s">
+        <v>454</v>
+      </c>
+      <c r="D285" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" t="s">
+        <v>456</v>
+      </c>
+      <c r="C286" t="s">
+        <v>454</v>
+      </c>
+      <c r="D286" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" t="s">
+        <v>457</v>
+      </c>
+      <c r="C287" t="s">
+        <v>57</v>
+      </c>
+      <c r="D287" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288" t="s">
+        <v>458</v>
+      </c>
+      <c r="C288" t="s">
+        <v>69</v>
+      </c>
+      <c r="D288" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" t="s">
+        <v>459</v>
+      </c>
+      <c r="C289" t="s">
+        <v>460</v>
+      </c>
+      <c r="D289" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B290" t="s">
+        <v>295</v>
+      </c>
+      <c r="C290" t="s">
+        <v>296</v>
+      </c>
+      <c r="D290" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B291" t="s">
+        <v>461</v>
+      </c>
+      <c r="C291" t="s">
+        <v>462</v>
+      </c>
+      <c r="D291" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B292" t="s">
+        <v>461</v>
+      </c>
+      <c r="C292" t="s">
+        <v>463</v>
+      </c>
+      <c r="D292" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B293" t="s">
+        <v>464</v>
+      </c>
+      <c r="C293" t="s">
+        <v>465</v>
+      </c>
+      <c r="D293" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B294" t="s">
+        <v>466</v>
+      </c>
+      <c r="C294" t="s">
+        <v>214</v>
+      </c>
+      <c r="D294" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B295" t="s">
+        <v>467</v>
+      </c>
+      <c r="C295" t="s">
+        <v>454</v>
+      </c>
+      <c r="D295" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" t="s">
+        <v>468</v>
+      </c>
+      <c r="C296" t="s">
+        <v>469</v>
+      </c>
+      <c r="D296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" t="s">
+        <v>470</v>
+      </c>
+      <c r="C297" t="s">
+        <v>469</v>
+      </c>
+      <c r="D297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B298" t="s">
+        <v>471</v>
+      </c>
+      <c r="C298" t="s">
+        <v>472</v>
+      </c>
+      <c r="D298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B299" t="s">
+        <v>473</v>
+      </c>
+      <c r="C299" t="s">
+        <v>474</v>
+      </c>
+      <c r="D299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300" t="s">
+        <v>475</v>
+      </c>
+      <c r="C300" t="s">
+        <v>476</v>
+      </c>
+      <c r="D300" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301" t="s">
+        <v>477</v>
+      </c>
+      <c r="C301" t="s">
+        <v>478</v>
+      </c>
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B302" t="s">
+        <v>479</v>
+      </c>
+      <c r="C302" t="s">
+        <v>60</v>
+      </c>
+      <c r="D302" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B303" t="s">
+        <v>480</v>
+      </c>
+      <c r="C303" t="s">
+        <v>481</v>
+      </c>
+      <c r="D303" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" t="s">
+        <v>482</v>
+      </c>
+      <c r="C304" t="s">
+        <v>483</v>
+      </c>
+      <c r="D304" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B305" t="s">
+        <v>484</v>
+      </c>
+      <c r="C305" t="s">
+        <v>57</v>
+      </c>
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B306" t="s">
+        <v>485</v>
+      </c>
+      <c r="C306" t="s">
+        <v>483</v>
+      </c>
+      <c r="D306" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B307" t="s">
+        <v>486</v>
+      </c>
+      <c r="C307" t="s">
+        <v>438</v>
+      </c>
+      <c r="D307" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B308" t="s">
+        <v>387</v>
+      </c>
+      <c r="C308" t="s">
+        <v>153</v>
+      </c>
+      <c r="D308" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B309" t="s">
+        <v>487</v>
+      </c>
+      <c r="C309" t="s">
+        <v>488</v>
+      </c>
+      <c r="D309" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B310" t="s">
+        <v>489</v>
+      </c>
+      <c r="C310" t="s">
+        <v>490</v>
+      </c>
+      <c r="D310" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B311" t="s">
+        <v>491</v>
+      </c>
+      <c r="C311" t="s">
+        <v>492</v>
+      </c>
+      <c r="D311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B312" t="s">
+        <v>493</v>
+      </c>
+      <c r="C312" t="s">
+        <v>494</v>
+      </c>
+      <c r="D312" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B313" t="s">
+        <v>495</v>
+      </c>
+      <c r="C313" t="s">
+        <v>490</v>
+      </c>
+      <c r="D313" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B314" t="s">
+        <v>496</v>
+      </c>
+      <c r="C314" t="s">
+        <v>497</v>
+      </c>
+      <c r="D314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B315" t="s">
+        <v>421</v>
+      </c>
+      <c r="C315" t="s">
+        <v>498</v>
+      </c>
+      <c r="D315" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B316" t="s">
+        <v>499</v>
+      </c>
+      <c r="C316" t="s">
+        <v>500</v>
+      </c>
+      <c r="D316" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B317" t="s">
+        <v>221</v>
+      </c>
+      <c r="C317" t="s">
+        <v>490</v>
+      </c>
+      <c r="D317" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B318" t="s">
+        <v>322</v>
+      </c>
+      <c r="C318" t="s">
+        <v>153</v>
+      </c>
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B319" t="s">
+        <v>501</v>
+      </c>
+      <c r="C319" t="s">
+        <v>502</v>
+      </c>
+      <c r="D319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B320" t="s">
+        <v>503</v>
+      </c>
+      <c r="C320" t="s">
+        <v>153</v>
+      </c>
+      <c r="D320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B321" t="s">
+        <v>304</v>
+      </c>
+      <c r="C321" t="s">
+        <v>504</v>
+      </c>
+      <c r="D321" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B322" t="s">
+        <v>505</v>
+      </c>
+      <c r="C322" t="s">
+        <v>506</v>
+      </c>
+      <c r="D322" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B323" t="s">
+        <v>507</v>
+      </c>
+      <c r="C323" t="s">
+        <v>508</v>
+      </c>
+      <c r="D323" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B324" t="s">
+        <v>509</v>
+      </c>
+      <c r="C324" t="s">
+        <v>153</v>
+      </c>
+      <c r="D324" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B325" t="s">
+        <v>510</v>
+      </c>
+      <c r="C325" t="s">
+        <v>153</v>
+      </c>
+      <c r="D325" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326" t="s">
+        <v>511</v>
+      </c>
+      <c r="C326" t="s">
+        <v>57</v>
+      </c>
+      <c r="D326" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B327" t="s">
+        <v>512</v>
+      </c>
+      <c r="C327" t="s">
+        <v>513</v>
+      </c>
+      <c r="D327" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B328" t="s">
+        <v>304</v>
+      </c>
+      <c r="C328" t="s">
+        <v>153</v>
+      </c>
+      <c r="D328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329" t="s">
+        <v>514</v>
+      </c>
+      <c r="C329" t="s">
+        <v>153</v>
+      </c>
+      <c r="D329" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B330" t="s">
+        <v>515</v>
+      </c>
+      <c r="C330" t="s">
+        <v>516</v>
+      </c>
+      <c r="D330" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B331" t="s">
+        <v>517</v>
+      </c>
+      <c r="C331" t="s">
+        <v>204</v>
+      </c>
+      <c r="D331" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B332" t="s">
+        <v>518</v>
+      </c>
+      <c r="C332" t="s">
+        <v>69</v>
+      </c>
+      <c r="D332" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333" t="s">
+        <v>519</v>
+      </c>
+      <c r="C333" t="s">
+        <v>60</v>
+      </c>
+      <c r="D333" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B334" t="s">
+        <v>520</v>
+      </c>
+      <c r="C334" t="s">
+        <v>521</v>
+      </c>
+      <c r="D334" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B335" t="s">
+        <v>522</v>
+      </c>
+      <c r="C335" t="s">
+        <v>523</v>
+      </c>
+      <c r="D335" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B336" t="s">
+        <v>524</v>
+      </c>
+      <c r="C336" t="s">
+        <v>90</v>
+      </c>
+      <c r="D336" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B337" t="s">
+        <v>525</v>
+      </c>
+      <c r="C337" t="s">
+        <v>523</v>
+      </c>
+      <c r="D337" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B338" t="s">
+        <v>526</v>
+      </c>
+      <c r="C338" t="s">
+        <v>527</v>
+      </c>
+      <c r="D338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" t="s">
+        <v>63</v>
+      </c>
+      <c r="C339" t="s">
+        <v>64</v>
+      </c>
+      <c r="D339" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B340" t="s">
+        <v>528</v>
+      </c>
+      <c r="C340" t="s">
+        <v>144</v>
+      </c>
+      <c r="D340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B341" t="s">
+        <v>529</v>
+      </c>
+      <c r="C341" t="s">
+        <v>530</v>
+      </c>
+      <c r="D341" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B342" t="s">
+        <v>531</v>
+      </c>
+      <c r="C342" t="s">
+        <v>532</v>
+      </c>
+      <c r="D342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B343" t="s">
+        <v>348</v>
+      </c>
+      <c r="C343" t="s">
+        <v>533</v>
+      </c>
+      <c r="D343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" t="s">
+        <v>534</v>
+      </c>
+      <c r="C344" t="s">
+        <v>535</v>
+      </c>
+      <c r="D344" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345" t="s">
+        <v>536</v>
+      </c>
+      <c r="C345" t="s">
+        <v>537</v>
+      </c>
+      <c r="D345" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B346" t="s">
+        <v>538</v>
+      </c>
+      <c r="C346" t="s">
+        <v>539</v>
+      </c>
+      <c r="D346" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B347" t="s">
+        <v>486</v>
+      </c>
+      <c r="C347" t="s">
+        <v>438</v>
+      </c>
+      <c r="D347" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B348" t="s">
+        <v>540</v>
+      </c>
+      <c r="C348" t="s">
+        <v>541</v>
+      </c>
+      <c r="D348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B349" t="s">
+        <v>542</v>
+      </c>
+      <c r="C349" t="s">
+        <v>532</v>
+      </c>
+      <c r="D349" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B350" t="s">
+        <v>543</v>
+      </c>
+      <c r="C350" t="s">
+        <v>57</v>
+      </c>
+      <c r="D350" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B351" t="s">
+        <v>544</v>
+      </c>
+      <c r="C351" t="s">
+        <v>545</v>
+      </c>
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B352" t="s">
+        <v>546</v>
+      </c>
+      <c r="C352" t="s">
+        <v>547</v>
+      </c>
+      <c r="D352" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B353" t="s">
+        <v>548</v>
+      </c>
+      <c r="C353" t="s">
+        <v>204</v>
+      </c>
+      <c r="D353" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B354" t="s">
+        <v>549</v>
+      </c>
+      <c r="C354" t="s">
+        <v>550</v>
+      </c>
+      <c r="D354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B355" t="s">
+        <v>551</v>
+      </c>
+      <c r="C355" t="s">
+        <v>153</v>
+      </c>
+      <c r="D355" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B356" t="s">
+        <v>509</v>
+      </c>
+      <c r="C356" t="s">
+        <v>153</v>
+      </c>
+      <c r="D356" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357" t="s">
+        <v>552</v>
+      </c>
+      <c r="C357" t="s">
+        <v>553</v>
+      </c>
+      <c r="D357" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B358" t="s">
+        <v>554</v>
+      </c>
+      <c r="C358" t="s">
+        <v>153</v>
+      </c>
+      <c r="D358" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B359" t="s">
+        <v>555</v>
+      </c>
+      <c r="C359" t="s">
+        <v>539</v>
+      </c>
+      <c r="D359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B360" t="s">
+        <v>556</v>
+      </c>
+      <c r="C360" t="s">
+        <v>537</v>
+      </c>
+      <c r="D360" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B361" t="s">
+        <v>557</v>
+      </c>
+      <c r="C361" t="s">
+        <v>60</v>
+      </c>
+      <c r="D361" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B362" t="s">
+        <v>558</v>
+      </c>
+      <c r="C362" t="s">
+        <v>559</v>
+      </c>
+      <c r="D362" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B363" t="s">
+        <v>560</v>
+      </c>
+      <c r="C363" t="s">
+        <v>561</v>
+      </c>
+      <c r="D363" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B364" t="s">
+        <v>562</v>
+      </c>
+      <c r="C364" t="s">
+        <v>563</v>
+      </c>
+      <c r="D364" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B365" t="s">
+        <v>387</v>
+      </c>
+      <c r="C365" t="s">
+        <v>564</v>
+      </c>
+      <c r="D365" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B366" t="s">
+        <v>565</v>
+      </c>
+      <c r="C366" t="s">
+        <v>566</v>
+      </c>
+      <c r="D366" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>4</v>
+      </c>
+      <c r="B367" t="s">
+        <v>567</v>
+      </c>
+      <c r="C367" t="s">
+        <v>568</v>
+      </c>
+      <c r="D367" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B368" t="s">
+        <v>569</v>
+      </c>
+      <c r="C368" t="s">
+        <v>570</v>
+      </c>
+      <c r="D368" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>4</v>
+      </c>
+      <c r="B369" t="s">
+        <v>571</v>
+      </c>
+      <c r="C369" t="s">
+        <v>572</v>
+      </c>
+      <c r="D369" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B370" t="s">
+        <v>573</v>
+      </c>
+      <c r="C370" t="s">
+        <v>574</v>
+      </c>
+      <c r="D370" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B371" t="s">
+        <v>575</v>
+      </c>
+      <c r="C371" t="s">
+        <v>576</v>
+      </c>
+      <c r="D371" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>4</v>
+      </c>
+      <c r="B372" t="s">
+        <v>577</v>
+      </c>
+      <c r="C372" t="s">
+        <v>578</v>
+      </c>
+      <c r="D372" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B373" t="s">
+        <v>305</v>
+      </c>
+      <c r="C373" t="s">
+        <v>579</v>
+      </c>
+      <c r="D373" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B374" t="s">
+        <v>580</v>
+      </c>
+      <c r="C374" t="s">
+        <v>581</v>
+      </c>
+      <c r="D374" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B375" t="s">
+        <v>83</v>
+      </c>
+      <c r="C375" t="s">
+        <v>581</v>
+      </c>
+      <c r="D375" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B376" t="s">
+        <v>582</v>
+      </c>
+      <c r="C376" t="s">
+        <v>581</v>
+      </c>
+      <c r="D376" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B377" t="s">
+        <v>583</v>
+      </c>
+      <c r="C377" t="s">
+        <v>584</v>
+      </c>
+      <c r="D377" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B378" t="s">
+        <v>585</v>
+      </c>
+      <c r="C378" t="s">
+        <v>586</v>
+      </c>
+      <c r="D378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>4</v>
+      </c>
+      <c r="B379" t="s">
+        <v>587</v>
+      </c>
+      <c r="C379" t="s">
+        <v>588</v>
+      </c>
+      <c r="D379" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B380" t="s">
+        <v>290</v>
+      </c>
+      <c r="C380" t="s">
+        <v>589</v>
+      </c>
+      <c r="D380" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B381" t="s">
+        <v>590</v>
+      </c>
+      <c r="C381" t="s">
+        <v>591</v>
+      </c>
+      <c r="D381" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B382" t="s">
+        <v>592</v>
+      </c>
+      <c r="C382" t="s">
+        <v>593</v>
+      </c>
+      <c r="D382" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B383" t="s">
+        <v>594</v>
+      </c>
+      <c r="C383" t="s">
+        <v>584</v>
+      </c>
+      <c r="D383" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B384" t="s">
+        <v>595</v>
+      </c>
+      <c r="C384" t="s">
+        <v>596</v>
+      </c>
+      <c r="D384" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B385" t="s">
+        <v>333</v>
+      </c>
+      <c r="C385" t="s">
+        <v>597</v>
+      </c>
+      <c r="D385" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B386" t="s">
+        <v>598</v>
+      </c>
+      <c r="C386" t="s">
+        <v>599</v>
+      </c>
+      <c r="D386" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B387" t="s">
+        <v>600</v>
+      </c>
+      <c r="C387" t="s">
+        <v>601</v>
+      </c>
+      <c r="D387" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B388" t="s">
+        <v>602</v>
+      </c>
+      <c r="C388" t="s">
+        <v>603</v>
+      </c>
+      <c r="D388" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B389" t="s">
+        <v>604</v>
+      </c>
+      <c r="C389" t="s">
+        <v>605</v>
+      </c>
+      <c r="D389" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B390" t="s">
+        <v>606</v>
+      </c>
+      <c r="C390" t="s">
+        <v>607</v>
+      </c>
+      <c r="D390" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B391" t="s">
+        <v>608</v>
+      </c>
+      <c r="C391" t="s">
+        <v>609</v>
+      </c>
+      <c r="D391" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B392" t="s">
+        <v>610</v>
+      </c>
+      <c r="C392" t="s">
+        <v>611</v>
+      </c>
+      <c r="D392" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B393" t="s">
+        <v>612</v>
+      </c>
+      <c r="C393" t="s">
+        <v>613</v>
+      </c>
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B394" t="s">
+        <v>614</v>
+      </c>
+      <c r="C394" t="s">
+        <v>591</v>
+      </c>
+      <c r="D394" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B395" t="s">
+        <v>615</v>
+      </c>
+      <c r="C395" t="s">
+        <v>616</v>
+      </c>
+      <c r="D395" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B396" t="s">
+        <v>617</v>
+      </c>
+      <c r="C396" t="s">
+        <v>616</v>
+      </c>
+      <c r="D396" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B397" t="s">
+        <v>618</v>
+      </c>
+      <c r="C397" t="s">
+        <v>616</v>
+      </c>
+      <c r="D397" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B398" t="s">
+        <v>619</v>
+      </c>
+      <c r="C398" t="s">
+        <v>581</v>
+      </c>
+      <c r="D398" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>4</v>
+      </c>
+      <c r="B399" t="s">
+        <v>595</v>
+      </c>
+      <c r="C399" t="s">
+        <v>596</v>
+      </c>
+      <c r="D399" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B400" t="s">
+        <v>620</v>
+      </c>
+      <c r="C400" t="s">
+        <v>597</v>
+      </c>
+      <c r="D400" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B401" t="s">
+        <v>621</v>
+      </c>
+      <c r="C401" t="s">
+        <v>622</v>
+      </c>
+      <c r="D401" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B402" t="s">
+        <v>623</v>
+      </c>
+      <c r="C402" t="s">
+        <v>599</v>
+      </c>
+      <c r="D402" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B403" t="s">
+        <v>624</v>
+      </c>
+      <c r="C403" t="s">
+        <v>625</v>
+      </c>
+      <c r="D403" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B404" t="s">
+        <v>626</v>
+      </c>
+      <c r="C404" t="s">
+        <v>627</v>
+      </c>
+      <c r="D404" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B405" t="s">
+        <v>628</v>
+      </c>
+      <c r="C405" t="s">
+        <v>629</v>
+      </c>
+      <c r="D405" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B406" t="s">
+        <v>348</v>
+      </c>
+      <c r="C406" t="s">
+        <v>630</v>
+      </c>
+      <c r="D406" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B407" t="s">
+        <v>304</v>
+      </c>
+      <c r="C407" t="s">
+        <v>630</v>
+      </c>
+      <c r="D407" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B408" t="s">
+        <v>351</v>
+      </c>
+      <c r="C408" t="s">
+        <v>631</v>
+      </c>
+      <c r="D408" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B409" t="s">
+        <v>632</v>
+      </c>
+      <c r="C409" t="s">
+        <v>633</v>
+      </c>
+      <c r="D409" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B410" t="s">
+        <v>634</v>
+      </c>
+      <c r="C410" t="s">
+        <v>635</v>
+      </c>
+      <c r="D410" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B411" t="s">
+        <v>636</v>
+      </c>
+      <c r="C411" t="s">
+        <v>613</v>
+      </c>
+      <c r="D411" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B412" t="s">
+        <v>637</v>
+      </c>
+      <c r="C412" t="s">
+        <v>638</v>
+      </c>
+      <c r="D412" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B413" t="s">
+        <v>639</v>
+      </c>
+      <c r="C413" t="s">
+        <v>591</v>
+      </c>
+      <c r="D413" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B414" t="s">
+        <v>640</v>
+      </c>
+      <c r="C414" t="s">
+        <v>581</v>
+      </c>
+      <c r="D414" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>4</v>
+      </c>
+      <c r="B415" t="s">
+        <v>641</v>
+      </c>
+      <c r="C415" t="s">
+        <v>642</v>
+      </c>
+      <c r="D415" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>4</v>
+      </c>
+      <c r="B416" t="s">
+        <v>643</v>
+      </c>
+      <c r="C416" t="s">
+        <v>644</v>
+      </c>
+      <c r="D416" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B417" t="s">
+        <v>645</v>
+      </c>
+      <c r="C417" t="s">
+        <v>596</v>
+      </c>
+      <c r="D417" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>4</v>
+      </c>
+      <c r="B418" t="s">
+        <v>646</v>
+      </c>
+      <c r="C418" t="s">
+        <v>647</v>
+      </c>
+      <c r="D418" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B419" t="s">
+        <v>648</v>
+      </c>
+      <c r="C419" t="s">
+        <v>597</v>
+      </c>
+      <c r="D419" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B420" t="s">
+        <v>290</v>
+      </c>
+      <c r="C420" t="s">
+        <v>599</v>
+      </c>
+      <c r="D420" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>4</v>
+      </c>
+      <c r="B421" t="s">
+        <v>649</v>
+      </c>
+      <c r="C421" t="s">
+        <v>650</v>
+      </c>
+      <c r="D421" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B422" t="s">
+        <v>651</v>
+      </c>
+      <c r="C422" t="s">
+        <v>601</v>
+      </c>
+      <c r="D422" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>4</v>
+      </c>
+      <c r="B423" t="s">
+        <v>652</v>
+      </c>
+      <c r="C423" t="s">
+        <v>613</v>
+      </c>
+      <c r="D423" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>4</v>
+      </c>
+      <c r="B424" t="s">
+        <v>421</v>
+      </c>
+      <c r="C424" t="s">
+        <v>574</v>
+      </c>
+      <c r="D424" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>4</v>
+      </c>
+      <c r="B425" t="s">
+        <v>653</v>
+      </c>
+      <c r="C425" t="s">
+        <v>591</v>
+      </c>
+      <c r="D425" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>4</v>
+      </c>
+      <c r="B426" t="s">
+        <v>654</v>
+      </c>
+      <c r="C426" t="s">
+        <v>581</v>
+      </c>
+      <c r="D426" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" t="s">
+        <v>4</v>
+      </c>
+      <c r="B427" t="s">
+        <v>655</v>
+      </c>
+      <c r="C427" t="s">
+        <v>596</v>
+      </c>
+      <c r="D427" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" t="s">
+        <v>4</v>
+      </c>
+      <c r="B428" t="s">
+        <v>577</v>
+      </c>
+      <c r="C428" t="s">
+        <v>597</v>
+      </c>
+      <c r="D428" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" t="s">
+        <v>4</v>
+      </c>
+      <c r="B429" t="s">
+        <v>304</v>
+      </c>
+      <c r="C429" t="s">
+        <v>622</v>
+      </c>
+      <c r="D429" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B430" t="s">
+        <v>656</v>
+      </c>
+      <c r="C430" t="s">
+        <v>599</v>
+      </c>
+      <c r="D430" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" t="s">
+        <v>4</v>
+      </c>
+      <c r="B431" t="s">
+        <v>305</v>
+      </c>
+      <c r="C431" t="s">
+        <v>657</v>
+      </c>
+      <c r="D431" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" t="s">
+        <v>4</v>
+      </c>
+      <c r="B432" t="s">
+        <v>658</v>
+      </c>
+      <c r="C432" t="s">
+        <v>659</v>
+      </c>
+      <c r="D432" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" t="s">
+        <v>4</v>
+      </c>
+      <c r="B433" t="s">
+        <v>83</v>
+      </c>
+      <c r="C433" t="s">
+        <v>660</v>
+      </c>
+      <c r="D433" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" t="s">
+        <v>4</v>
+      </c>
+      <c r="B434" t="s">
+        <v>661</v>
+      </c>
+      <c r="C434" t="s">
+        <v>630</v>
+      </c>
+      <c r="D434" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" t="s">
+        <v>4</v>
+      </c>
+      <c r="B435" t="s">
+        <v>662</v>
+      </c>
+      <c r="C435" t="s">
+        <v>630</v>
+      </c>
+      <c r="D435" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" t="s">
+        <v>4</v>
+      </c>
+      <c r="B436" t="s">
+        <v>421</v>
+      </c>
+      <c r="C436" t="s">
+        <v>609</v>
+      </c>
+      <c r="D436" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" t="s">
+        <v>663</v>
+      </c>
+      <c r="B437" t="s">
+        <v>664</v>
+      </c>
+      <c r="C437" t="s">
+        <v>665</v>
+      </c>
+      <c r="D437" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" t="s">
+        <v>663</v>
+      </c>
+      <c r="B438" t="s">
+        <v>305</v>
+      </c>
+      <c r="C438" t="s">
+        <v>666</v>
+      </c>
+      <c r="D438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" t="s">
+        <v>663</v>
+      </c>
+      <c r="B439" t="s">
+        <v>667</v>
+      </c>
+      <c r="C439" t="s">
+        <v>668</v>
+      </c>
+      <c r="D439" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" t="s">
+        <v>663</v>
+      </c>
+      <c r="B440" t="s">
+        <v>475</v>
+      </c>
+      <c r="C440" t="s">
+        <v>669</v>
+      </c>
+      <c r="D440" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" t="s">
+        <v>663</v>
+      </c>
+      <c r="B441" t="s">
+        <v>421</v>
+      </c>
+      <c r="C441" t="s">
+        <v>670</v>
+      </c>
+      <c r="D441" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" t="s">
+        <v>663</v>
+      </c>
+      <c r="B442" t="s">
+        <v>661</v>
+      </c>
+      <c r="C442" t="s">
+        <v>671</v>
+      </c>
+      <c r="D442" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" t="s">
+        <v>663</v>
+      </c>
+      <c r="B443" t="s">
+        <v>672</v>
+      </c>
+      <c r="C443" t="s">
+        <v>673</v>
+      </c>
+      <c r="D443" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" t="s">
+        <v>663</v>
+      </c>
+      <c r="B444" t="s">
+        <v>674</v>
+      </c>
+      <c r="C444" t="s">
+        <v>675</v>
+      </c>
+      <c r="D444" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" t="s">
+        <v>663</v>
+      </c>
+      <c r="B445" t="s">
+        <v>676</v>
+      </c>
+      <c r="C445" t="s">
+        <v>677</v>
+      </c>
+      <c r="D445" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" t="s">
+        <v>663</v>
+      </c>
+      <c r="B446" t="s">
+        <v>678</v>
+      </c>
+      <c r="C446" t="s">
+        <v>669</v>
+      </c>
+      <c r="D446" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" t="s">
+        <v>663</v>
+      </c>
+      <c r="B447" t="s">
+        <v>679</v>
+      </c>
+      <c r="C447" t="s">
+        <v>680</v>
+      </c>
+      <c r="D447" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" t="s">
+        <v>663</v>
+      </c>
+      <c r="B448" t="s">
+        <v>681</v>
+      </c>
+      <c r="C448" t="s">
+        <v>673</v>
+      </c>
+      <c r="D448" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" t="s">
+        <v>663</v>
+      </c>
+      <c r="B449" t="s">
+        <v>682</v>
+      </c>
+      <c r="C449" t="s">
+        <v>683</v>
+      </c>
+      <c r="D449" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" t="s">
+        <v>663</v>
+      </c>
+      <c r="B450" t="s">
+        <v>684</v>
+      </c>
+      <c r="C450" t="s">
+        <v>685</v>
+      </c>
+      <c r="D450" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" t="s">
+        <v>663</v>
+      </c>
+      <c r="B451" t="s">
+        <v>686</v>
+      </c>
+      <c r="C451" t="s">
+        <v>665</v>
+      </c>
+      <c r="D451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" t="s">
+        <v>663</v>
+      </c>
+      <c r="B452" t="s">
+        <v>687</v>
+      </c>
+      <c r="C452" t="s">
+        <v>665</v>
+      </c>
+      <c r="D452" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" t="s">
+        <v>663</v>
+      </c>
+      <c r="B453" t="s">
+        <v>688</v>
+      </c>
+      <c r="C453" t="s">
+        <v>666</v>
+      </c>
+      <c r="D453" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" t="s">
+        <v>663</v>
+      </c>
+      <c r="B454" t="s">
+        <v>689</v>
+      </c>
+      <c r="C454" t="s">
+        <v>668</v>
+      </c>
+      <c r="D454" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" t="s">
+        <v>663</v>
+      </c>
+      <c r="B455" t="s">
+        <v>690</v>
+      </c>
+      <c r="C455" t="s">
+        <v>691</v>
+      </c>
+      <c r="D455" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" t="s">
+        <v>663</v>
+      </c>
+      <c r="B456" t="s">
+        <v>692</v>
+      </c>
+      <c r="C456" t="s">
+        <v>671</v>
+      </c>
+      <c r="D456" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" t="s">
+        <v>663</v>
+      </c>
+      <c r="B457" t="s">
+        <v>658</v>
+      </c>
+      <c r="C457" t="s">
+        <v>670</v>
+      </c>
+      <c r="D457" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" t="s">
+        <v>663</v>
+      </c>
+      <c r="B458" t="s">
+        <v>693</v>
+      </c>
+      <c r="C458" t="s">
+        <v>680</v>
+      </c>
+      <c r="D458" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" t="s">
+        <v>663</v>
+      </c>
+      <c r="B459" t="s">
+        <v>475</v>
+      </c>
+      <c r="C459" t="s">
+        <v>683</v>
+      </c>
+      <c r="D459" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" t="s">
+        <v>663</v>
+      </c>
+      <c r="B460" t="s">
+        <v>694</v>
+      </c>
+      <c r="C460" t="s">
+        <v>695</v>
+      </c>
+      <c r="D460" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" t="s">
+        <v>663</v>
+      </c>
+      <c r="B461" t="s">
+        <v>694</v>
+      </c>
+      <c r="C461" t="s">
+        <v>666</v>
+      </c>
+      <c r="D461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" t="s">
+        <v>663</v>
+      </c>
+      <c r="B462" t="s">
+        <v>696</v>
+      </c>
+      <c r="C462" t="s">
+        <v>665</v>
+      </c>
+      <c r="D462" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" t="s">
+        <v>663</v>
+      </c>
+      <c r="B463" t="s">
+        <v>697</v>
+      </c>
+      <c r="C463" t="s">
+        <v>691</v>
+      </c>
+      <c r="D463" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" t="s">
+        <v>663</v>
+      </c>
+      <c r="B464" t="s">
+        <v>698</v>
+      </c>
+      <c r="C464" t="s">
+        <v>668</v>
+      </c>
+      <c r="D464" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" t="s">
+        <v>663</v>
+      </c>
+      <c r="B465" t="s">
+        <v>699</v>
+      </c>
+      <c r="C465" t="s">
+        <v>670</v>
+      </c>
+      <c r="D465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" t="s">
+        <v>663</v>
+      </c>
+      <c r="B466" t="s">
+        <v>692</v>
+      </c>
+      <c r="C466" t="s">
+        <v>683</v>
+      </c>
+      <c r="D466" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" t="s">
+        <v>663</v>
+      </c>
+      <c r="B467" t="s">
+        <v>700</v>
+      </c>
+      <c r="C467" t="s">
+        <v>673</v>
+      </c>
+      <c r="D467" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" t="s">
+        <v>663</v>
+      </c>
+      <c r="B468" t="s">
+        <v>701</v>
+      </c>
+      <c r="C468" t="s">
+        <v>671</v>
+      </c>
+      <c r="D468" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" t="s">
+        <v>663</v>
+      </c>
+      <c r="B469" t="s">
+        <v>702</v>
+      </c>
+      <c r="C469" t="s">
+        <v>669</v>
+      </c>
+      <c r="D469" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" t="s">
+        <v>663</v>
+      </c>
+      <c r="B470" t="s">
+        <v>658</v>
+      </c>
+      <c r="C470" t="s">
+        <v>703</v>
+      </c>
+      <c r="D470" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" t="s">
+        <v>663</v>
+      </c>
+      <c r="B471" t="s">
+        <v>704</v>
+      </c>
+      <c r="C471" t="s">
+        <v>680</v>
+      </c>
+      <c r="D471" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" t="s">
+        <v>663</v>
+      </c>
+      <c r="B472" t="s">
+        <v>475</v>
+      </c>
+      <c r="C472" t="s">
+        <v>705</v>
+      </c>
+      <c r="D472" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" t="s">
+        <v>663</v>
+      </c>
+      <c r="B473" t="s">
+        <v>706</v>
+      </c>
+      <c r="C473" t="s">
+        <v>707</v>
+      </c>
+      <c r="D473" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" t="s">
+        <v>663</v>
+      </c>
+      <c r="B474" t="s">
+        <v>708</v>
+      </c>
+      <c r="C474" t="s">
+        <v>683</v>
+      </c>
+      <c r="D474" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" t="s">
+        <v>663</v>
+      </c>
+      <c r="B475" t="s">
+        <v>709</v>
+      </c>
+      <c r="C475" t="s">
+        <v>673</v>
+      </c>
+      <c r="D475" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" t="s">
+        <v>663</v>
+      </c>
+      <c r="B476" t="s">
+        <v>710</v>
+      </c>
+      <c r="C476" t="s">
+        <v>665</v>
+      </c>
+      <c r="D476" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" t="s">
+        <v>663</v>
+      </c>
+      <c r="B477" t="s">
+        <v>711</v>
+      </c>
+      <c r="C477" t="s">
+        <v>675</v>
+      </c>
+      <c r="D477" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" t="s">
+        <v>663</v>
+      </c>
+      <c r="B478" t="s">
+        <v>712</v>
+      </c>
+      <c r="C478" t="s">
+        <v>680</v>
+      </c>
+      <c r="D478" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" t="s">
+        <v>663</v>
+      </c>
+      <c r="B479" t="s">
+        <v>713</v>
+      </c>
+      <c r="C479" t="s">
+        <v>695</v>
+      </c>
+      <c r="D479" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" t="s">
+        <v>663</v>
+      </c>
+      <c r="B480" t="s">
+        <v>714</v>
+      </c>
+      <c r="C480" t="s">
+        <v>715</v>
+      </c>
+      <c r="D480" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" t="s">
+        <v>663</v>
+      </c>
+      <c r="B481" t="s">
+        <v>716</v>
+      </c>
+      <c r="C481" t="s">
+        <v>717</v>
+      </c>
+      <c r="D481" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" t="s">
+        <v>663</v>
+      </c>
+      <c r="B482" t="s">
+        <v>718</v>
+      </c>
+      <c r="C482" t="s">
+        <v>671</v>
+      </c>
+      <c r="D482" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" t="s">
+        <v>663</v>
+      </c>
+      <c r="B483" t="s">
+        <v>702</v>
+      </c>
+      <c r="C483" t="s">
+        <v>673</v>
+      </c>
+      <c r="D483" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" t="s">
+        <v>663</v>
+      </c>
+      <c r="B484" t="s">
+        <v>719</v>
+      </c>
+      <c r="C484" t="s">
+        <v>720</v>
+      </c>
+      <c r="D484" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" t="s">
+        <v>663</v>
+      </c>
+      <c r="B485" t="s">
+        <v>721</v>
+      </c>
+      <c r="C485" t="s">
+        <v>722</v>
+      </c>
+      <c r="D485" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" t="s">
+        <v>663</v>
+      </c>
+      <c r="B486" t="s">
+        <v>305</v>
+      </c>
+      <c r="C486" t="s">
+        <v>666</v>
+      </c>
+      <c r="D486" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" t="s">
+        <v>663</v>
+      </c>
+      <c r="B487" t="s">
+        <v>723</v>
+      </c>
+      <c r="C487" t="s">
+        <v>695</v>
+      </c>
+      <c r="D487" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" t="s">
+        <v>663</v>
+      </c>
+      <c r="B488" t="s">
+        <v>475</v>
+      </c>
+      <c r="C488" t="s">
+        <v>669</v>
+      </c>
+      <c r="D488" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" t="s">
+        <v>663</v>
+      </c>
+      <c r="B489" t="s">
+        <v>724</v>
+      </c>
+      <c r="C489" t="s">
+        <v>665</v>
+      </c>
+      <c r="D489" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" t="s">
+        <v>663</v>
+      </c>
+      <c r="B490" t="s">
+        <v>725</v>
+      </c>
+      <c r="C490" t="s">
+        <v>671</v>
+      </c>
+      <c r="D490" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" t="s">
+        <v>663</v>
+      </c>
+      <c r="B491" t="s">
+        <v>726</v>
+      </c>
+      <c r="C491" t="s">
+        <v>691</v>
+      </c>
+      <c r="D491" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" t="s">
+        <v>663</v>
+      </c>
+      <c r="B492" t="s">
+        <v>727</v>
+      </c>
+      <c r="C492" t="s">
+        <v>670</v>
+      </c>
+      <c r="D492" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" t="s">
+        <v>663</v>
+      </c>
+      <c r="B493" t="s">
+        <v>305</v>
+      </c>
+      <c r="C493" t="s">
+        <v>695</v>
+      </c>
+      <c r="D493" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" t="s">
+        <v>663</v>
+      </c>
+      <c r="B494" t="s">
+        <v>728</v>
+      </c>
+      <c r="C494" t="s">
+        <v>691</v>
+      </c>
+      <c r="D494" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" t="s">
+        <v>663</v>
+      </c>
+      <c r="B495" t="s">
+        <v>729</v>
+      </c>
+      <c r="C495" t="s">
+        <v>668</v>
+      </c>
+      <c r="D495" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" t="s">
+        <v>663</v>
+      </c>
+      <c r="B496" t="s">
+        <v>730</v>
+      </c>
+      <c r="C496" t="s">
+        <v>731</v>
+      </c>
+      <c r="D496" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" t="s">
+        <v>663</v>
+      </c>
+      <c r="B497" t="s">
+        <v>732</v>
+      </c>
+      <c r="C497" t="s">
+        <v>733</v>
+      </c>
+      <c r="D497" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" t="s">
+        <v>663</v>
+      </c>
+      <c r="B498" t="s">
+        <v>734</v>
+      </c>
+      <c r="C498" t="s">
+        <v>735</v>
+      </c>
+      <c r="D498" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" t="s">
+        <v>663</v>
+      </c>
+      <c r="B499" t="s">
+        <v>304</v>
+      </c>
+      <c r="C499" t="s">
+        <v>736</v>
+      </c>
+      <c r="D499" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" t="s">
+        <v>663</v>
+      </c>
+      <c r="B500" t="s">
+        <v>737</v>
+      </c>
+      <c r="C500" t="s">
+        <v>671</v>
+      </c>
+      <c r="D500" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" t="s">
+        <v>663</v>
+      </c>
+      <c r="B501" t="s">
+        <v>738</v>
+      </c>
+      <c r="C501" t="s">
+        <v>673</v>
+      </c>
+      <c r="D501" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" t="s">
+        <v>663</v>
+      </c>
+      <c r="B502" t="s">
+        <v>421</v>
+      </c>
+      <c r="C502" t="s">
+        <v>666</v>
+      </c>
+      <c r="D502" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" t="s">
+        <v>663</v>
+      </c>
+      <c r="B503" t="s">
+        <v>475</v>
+      </c>
+      <c r="C503" t="s">
+        <v>669</v>
+      </c>
+      <c r="D503" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" t="s">
+        <v>663</v>
+      </c>
+      <c r="B504" t="s">
+        <v>602</v>
+      </c>
+      <c r="C504" t="s">
+        <v>735</v>
+      </c>
+      <c r="D504" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" t="s">
+        <v>663</v>
+      </c>
+      <c r="B505" t="s">
+        <v>661</v>
+      </c>
+      <c r="C505" t="s">
+        <v>671</v>
+      </c>
+      <c r="D505" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" t="s">
+        <v>663</v>
+      </c>
+      <c r="B506" t="s">
+        <v>739</v>
+      </c>
+      <c r="C506" t="s">
+        <v>665</v>
+      </c>
+      <c r="D506" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" t="s">
+        <v>663</v>
+      </c>
+      <c r="B507" t="s">
+        <v>740</v>
+      </c>
+      <c r="C507" t="s">
+        <v>741</v>
+      </c>
+      <c r="D507" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" t="s">
+        <v>663</v>
+      </c>
+      <c r="B508" t="s">
+        <v>742</v>
+      </c>
+      <c r="C508" t="s">
+        <v>691</v>
+      </c>
+      <c r="D508" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" t="s">
+        <v>663</v>
+      </c>
+      <c r="B509" t="s">
+        <v>743</v>
+      </c>
+      <c r="C509" t="s">
+        <v>680</v>
+      </c>
+      <c r="D509" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" t="s">
+        <v>663</v>
+      </c>
+      <c r="B510" t="s">
+        <v>577</v>
+      </c>
+      <c r="C510" t="s">
+        <v>673</v>
+      </c>
+      <c r="D510" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" t="s">
+        <v>663</v>
+      </c>
+      <c r="B511" t="s">
+        <v>744</v>
+      </c>
+      <c r="C511" t="s">
+        <v>670</v>
+      </c>
+      <c r="D511" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" t="s">
+        <v>663</v>
+      </c>
+      <c r="B512" t="s">
+        <v>661</v>
+      </c>
+      <c r="C512" t="s">
+        <v>669</v>
+      </c>
+      <c r="D512" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" t="s">
+        <v>663</v>
+      </c>
+      <c r="B513" t="s">
+        <v>745</v>
+      </c>
+      <c r="C513" t="s">
+        <v>746</v>
+      </c>
+      <c r="D513" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" t="s">
+        <v>663</v>
+      </c>
+      <c r="B514" t="s">
+        <v>747</v>
+      </c>
+      <c r="C514" t="s">
+        <v>665</v>
+      </c>
+      <c r="D514" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" t="s">
+        <v>663</v>
+      </c>
+      <c r="B515" t="s">
+        <v>748</v>
+      </c>
+      <c r="C515" t="s">
+        <v>666</v>
+      </c>
+      <c r="D515" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" t="s">
+        <v>663</v>
+      </c>
+      <c r="B516" t="s">
+        <v>749</v>
+      </c>
+      <c r="C516" t="s">
+        <v>668</v>
+      </c>
+      <c r="D516" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" t="s">
+        <v>663</v>
+      </c>
+      <c r="B517" t="s">
+        <v>750</v>
+      </c>
+      <c r="C517" t="s">
+        <v>673</v>
+      </c>
+      <c r="D517" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" t="s">
+        <v>663</v>
+      </c>
+      <c r="B518" t="s">
+        <v>747</v>
+      </c>
+      <c r="C518" t="s">
+        <v>671</v>
+      </c>
+      <c r="D518" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" t="s">
+        <v>663</v>
+      </c>
+      <c r="B519" t="s">
+        <v>751</v>
+      </c>
+      <c r="C519" t="s">
+        <v>680</v>
+      </c>
+      <c r="D519" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" t="s">
+        <v>663</v>
+      </c>
+      <c r="B520" t="s">
+        <v>752</v>
+      </c>
+      <c r="C520" t="s">
+        <v>753</v>
+      </c>
+      <c r="D520" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" t="s">
+        <v>663</v>
+      </c>
+      <c r="B521" t="s">
+        <v>754</v>
+      </c>
+      <c r="C521" t="s">
+        <v>683</v>
+      </c>
+      <c r="D521" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" t="s">
+        <v>663</v>
+      </c>
+      <c r="B522" t="s">
+        <v>755</v>
+      </c>
+      <c r="C522" t="s">
+        <v>756</v>
+      </c>
+      <c r="D522" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" t="s">
+        <v>663</v>
+      </c>
+      <c r="B523" t="s">
+        <v>747</v>
+      </c>
+      <c r="C523" t="s">
+        <v>757</v>
+      </c>
+      <c r="D523" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
